--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9487095997264118</v>
+        <v>0.9773520444207801</v>
       </c>
       <c r="D2">
-        <v>0.9065776285313608</v>
+        <v>0.9543152958162814</v>
       </c>
       <c r="E2">
-        <v>0.9169275680086826</v>
+        <v>0.9582015157281115</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.867923737761889</v>
+        <v>0.9584562192782538</v>
       </c>
       <c r="H2">
-        <v>0.907399956579812</v>
+        <v>0.9551809252010338</v>
       </c>
       <c r="L2">
-        <v>0.9221115594126794</v>
+        <v>0.9695248790727012</v>
       </c>
       <c r="M2">
-        <v>0.884917904355157</v>
+        <v>0.9338291813329535</v>
       </c>
       <c r="N2">
-        <v>0.8571146538257401</v>
+        <v>0.9467395913474621</v>
       </c>
       <c r="O2">
-        <v>0.8378749718748401</v>
+        <v>0.9504588672154154</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.952249697484543</v>
+        <v>0.9787449255614321</v>
       </c>
       <c r="D3">
-        <v>0.9126442568191243</v>
+        <v>0.9566603145303347</v>
       </c>
       <c r="E3">
-        <v>0.9228578218877975</v>
+        <v>0.9605777778798741</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G3">
-        <v>0.8766323336142842</v>
+        <v>0.9605458901460937</v>
       </c>
       <c r="H3">
-        <v>0.9134720877152565</v>
+        <v>0.9575280710077952</v>
       </c>
       <c r="L3">
-        <v>0.9263787708375372</v>
+        <v>0.9710155883320741</v>
       </c>
       <c r="M3">
-        <v>0.8912443507186419</v>
+        <v>0.9363209389686052</v>
       </c>
       <c r="N3">
-        <v>0.8689764103035298</v>
+        <v>0.9496437474603603</v>
       </c>
       <c r="O3">
-        <v>0.84775548768665</v>
+        <v>0.9526568489051052</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -500,34 +500,34 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9546098979740559</v>
+        <v>0.9796948347367467</v>
       </c>
       <c r="D4">
-        <v>0.9168018923490548</v>
+        <v>0.9583672781438106</v>
       </c>
       <c r="E4">
-        <v>0.9269797294707542</v>
+        <v>0.9623419063884882</v>
       </c>
       <c r="F4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8827107729087331</v>
+        <v>0.9621002288783299</v>
       </c>
       <c r="H4">
-        <v>0.9176334945055888</v>
+        <v>0.9592365829542686</v>
       </c>
       <c r="L4">
-        <v>0.9292712105383223</v>
+        <v>0.9720397813956198</v>
       </c>
       <c r="M4">
-        <v>0.8955857303030541</v>
+        <v>0.9381380836259479</v>
       </c>
       <c r="N4">
-        <v>0.8772676173211568</v>
+        <v>0.9518046843571263</v>
       </c>
       <c r="O4">
-        <v>0.854663353533774</v>
+        <v>0.9542938149014041</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -538,34 +538,34 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9557054093374724</v>
+        <v>0.9801408591636842</v>
       </c>
       <c r="D5">
-        <v>0.9187820672427915</v>
+        <v>0.9592141891442756</v>
       </c>
       <c r="E5">
-        <v>0.9289675480917101</v>
+        <v>0.9632307717889166</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G5">
-        <v>0.885650687767284</v>
+        <v>0.9628844653949439</v>
       </c>
       <c r="H5">
-        <v>0.9196154655536809</v>
+        <v>0.9600842621610606</v>
       </c>
       <c r="L5">
-        <v>0.9306330299361671</v>
+        <v>0.9725238731915415</v>
       </c>
       <c r="M5">
-        <v>0.8976557640237457</v>
+        <v>0.9390410107474567</v>
       </c>
       <c r="N5">
-        <v>0.881291592614456</v>
+        <v>0.9528954492518774</v>
       </c>
       <c r="O5">
-        <v>0.858009957013108</v>
+        <v>0.9551205384500632</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -576,34 +576,34 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.9561505023346308</v>
+        <v>0.9803228908569025</v>
       </c>
       <c r="D6">
-        <v>0.9195992343448701</v>
+        <v>0.9595709796282883</v>
       </c>
       <c r="E6">
-        <v>0.929793860986366</v>
+        <v>0.9636083939858976</v>
       </c>
       <c r="F6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8868746036633837</v>
+        <v>0.9632178731693578</v>
       </c>
       <c r="H6">
-        <v>0.9204333738823318</v>
+        <v>0.9604413762784975</v>
       </c>
       <c r="L6">
-        <v>0.9311909557790645</v>
+        <v>0.9727222230810503</v>
       </c>
       <c r="M6">
-        <v>0.8985105753108277</v>
+        <v>0.9394217159708234</v>
       </c>
       <c r="N6">
-        <v>0.8829710627025685</v>
+        <v>0.953359304188821</v>
       </c>
       <c r="O6">
-        <v>0.859404586966084</v>
+        <v>0.9554721913041527</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9561505023346308</v>
+        <v>0.9803228908569025</v>
       </c>
       <c r="D7">
-        <v>0.9195992343448701</v>
+        <v>0.9595709796282883</v>
       </c>
       <c r="E7">
-        <v>0.929793860986366</v>
+        <v>0.9636083939858976</v>
       </c>
       <c r="F7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8868746036633837</v>
+        <v>0.9632178731693578</v>
       </c>
       <c r="H7">
-        <v>0.9204333738823318</v>
+        <v>0.9604413762784975</v>
       </c>
       <c r="L7">
-        <v>0.9311909557790645</v>
+        <v>0.9727222230810503</v>
       </c>
       <c r="M7">
-        <v>0.8985105753108277</v>
+        <v>0.9394217159708234</v>
       </c>
       <c r="N7">
-        <v>0.8829710627025685</v>
+        <v>0.953359304188821</v>
       </c>
       <c r="O7">
-        <v>0.859404586966084</v>
+        <v>0.9554721913041527</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -652,34 +652,34 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9560422005324258</v>
+        <v>0.9802785576336249</v>
       </c>
       <c r="D8">
-        <v>0.9193996274396392</v>
+        <v>0.9594834102319267</v>
       </c>
       <c r="E8">
-        <v>0.9295916615171408</v>
+        <v>0.9635155267855273</v>
       </c>
       <c r="F8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G8">
-        <v>0.8865750061758279</v>
+        <v>0.9631358659848587</v>
       </c>
       <c r="H8">
-        <v>0.9202335859199562</v>
+        <v>0.9603537274506913</v>
       </c>
       <c r="L8">
-        <v>0.9310549206174014</v>
+        <v>0.972673868324171</v>
       </c>
       <c r="M8">
-        <v>0.8983017397199284</v>
+        <v>0.939328258457981</v>
       </c>
       <c r="N8">
-        <v>0.8825596811234763</v>
+        <v>0.953245203260354</v>
       </c>
       <c r="O8">
-        <v>0.8590631159616723</v>
+        <v>0.9553856858552044</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -690,34 +690,34 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.954345141329809</v>
+        <v>0.9795875025155213</v>
       </c>
       <c r="D9">
-        <v>0.9163289562483024</v>
+        <v>0.9581684574427475</v>
       </c>
       <c r="E9">
-        <v>0.9265076398024228</v>
+        <v>0.9621346472824567</v>
       </c>
       <c r="F9">
         <v>0.9999999999999998</v>
       </c>
       <c r="G9">
-        <v>0.8820134298447829</v>
+        <v>0.9619174739392945</v>
       </c>
       <c r="H9">
-        <v>0.9171601294193766</v>
+        <v>0.9590375819092017</v>
       </c>
       <c r="L9">
-        <v>0.92894419623689</v>
+        <v>0.9719236381435616</v>
       </c>
       <c r="M9">
-        <v>0.8950915849673299</v>
+        <v>0.937926253259975</v>
       </c>
       <c r="N9">
-        <v>0.8763148354699101</v>
+        <v>0.9515505507268847</v>
       </c>
       <c r="O9">
-        <v>0.8538701536479913</v>
+        <v>0.9541012404150635</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -728,34 +728,34 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9489941788118456</v>
+        <v>0.9774625065754827</v>
       </c>
       <c r="D10">
-        <v>0.9070601873242231</v>
+        <v>0.9544961363254286</v>
       </c>
       <c r="E10">
-        <v>0.9173966183619914</v>
+        <v>0.9583831256041925</v>
       </c>
       <c r="F10">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G10">
-        <v>0.8686110867582226</v>
+        <v>0.9586157760056971</v>
       </c>
       <c r="H10">
-        <v>0.9078829530865753</v>
+        <v>0.9553619297449185</v>
       </c>
       <c r="L10">
-        <v>0.9224521992711013</v>
+        <v>0.9696427387633458</v>
       </c>
       <c r="M10">
-        <v>0.8854208571476787</v>
+        <v>0.9340211795739423</v>
       </c>
       <c r="N10">
-        <v>0.8580514517660548</v>
+        <v>0.9469613200609243</v>
       </c>
       <c r="O10">
-        <v>0.8386543760633397</v>
+        <v>0.950626595704821</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -766,34 +766,34 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9421067368373751</v>
+        <v>0.9748689292287538</v>
       </c>
       <c r="D11">
-        <v>0.8955208956307777</v>
+        <v>0.9504114862214637</v>
       </c>
       <c r="E11">
-        <v>0.9062563709124899</v>
+        <v>0.9543341647077224</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G11">
-        <v>0.8523497096683502</v>
+        <v>0.9550638063553704</v>
       </c>
       <c r="H11">
-        <v>0.896333194464629</v>
+        <v>0.9512735745833356</v>
       </c>
       <c r="L11">
-        <v>0.9142905233116985</v>
+        <v>0.9668868274139121</v>
       </c>
       <c r="M11">
-        <v>0.8734025533550961</v>
+        <v>0.9296895161211729</v>
       </c>
       <c r="N11">
-        <v>0.8357880681208298</v>
+        <v>0.9420249381170074</v>
       </c>
       <c r="O11">
-        <v>0.8202222619201082</v>
+        <v>0.9468959243232355</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -804,34 +804,34 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9380928072162531</v>
+        <v>0.9734392118652518</v>
       </c>
       <c r="D12">
-        <v>0.8888655295771877</v>
+        <v>0.94826691944806</v>
       </c>
       <c r="E12">
-        <v>0.8998718572912389</v>
+        <v>0.9522449671963078</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.8430901486920066</v>
+        <v>0.9532350681961522</v>
       </c>
       <c r="H12">
-        <v>0.8896717915378511</v>
+        <v>0.9491270625408735</v>
       </c>
       <c r="L12">
-        <v>0.9095944902750757</v>
+        <v>0.9653751663401665</v>
       </c>
       <c r="M12">
-        <v>0.8664766084052498</v>
+        <v>0.9274186317852324</v>
       </c>
       <c r="N12">
-        <v>0.8229615004405758</v>
+        <v>0.939482498783516</v>
       </c>
       <c r="O12">
-        <v>0.8097249988108136</v>
+        <v>0.944977434138223</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -842,34 +842,34 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9345788709632598</v>
+        <v>0.9722409428425127</v>
       </c>
       <c r="D13">
-        <v>0.8830460461722606</v>
+        <v>0.946510755333466</v>
       </c>
       <c r="E13">
-        <v>0.8942953269430453</v>
+        <v>0.9505489586392033</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8350402394582863</v>
+        <v>0.9517523369277658</v>
       </c>
       <c r="H13">
-        <v>0.8838470294625917</v>
+        <v>0.9473693054650555</v>
       </c>
       <c r="L13">
-        <v>0.9055107289492437</v>
+        <v>0.9641111258541468</v>
       </c>
       <c r="M13">
-        <v>0.8604225985541786</v>
+        <v>0.9255603389508904</v>
       </c>
       <c r="N13">
-        <v>0.8116833935280761</v>
+        <v>0.9374203080226988</v>
       </c>
       <c r="O13">
-        <v>0.8005934865425762</v>
+        <v>0.9434228634192503</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -880,34 +880,34 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9339229563598896</v>
+        <v>0.9720230241673952</v>
       </c>
       <c r="D14">
-        <v>0.8819590490123036</v>
+        <v>0.9461948207369479</v>
       </c>
       <c r="E14">
-        <v>0.8932535473298703</v>
+        <v>0.9502451127247138</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8335405377434888</v>
+        <v>0.951486867414099</v>
       </c>
       <c r="H14">
-        <v>0.882759046321705</v>
+        <v>0.9470530842942034</v>
       </c>
       <c r="L14">
-        <v>0.9047509634615944</v>
+        <v>0.9638814887877987</v>
       </c>
       <c r="M14">
-        <v>0.8592919588572828</v>
+        <v>0.925226140979285</v>
       </c>
       <c r="N14">
-        <v>0.8095670680801075</v>
+        <v>0.9370510037041635</v>
       </c>
       <c r="O14">
-        <v>0.798891524253253</v>
+        <v>0.9431446122253315</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -918,34 +918,34 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.934864363962582</v>
+        <v>0.9723363685275841</v>
       </c>
       <c r="D15">
-        <v>0.8835190513978356</v>
+        <v>0.946649416628798</v>
       </c>
       <c r="E15">
-        <v>0.8947486120155951</v>
+        <v>0.9506824313911408</v>
       </c>
       <c r="F15">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G15">
-        <v>0.8356931873989381</v>
+        <v>0.9518689675980906</v>
       </c>
       <c r="H15">
-        <v>0.8843204637363274</v>
+        <v>0.9475080925356868</v>
       </c>
       <c r="L15">
-        <v>0.9058416616402569</v>
+        <v>0.964211705185073</v>
       </c>
       <c r="M15">
-        <v>0.8609146092540036</v>
+        <v>0.9257070259434191</v>
       </c>
       <c r="N15">
-        <v>0.8126032346392811</v>
+        <v>0.9375825483364657</v>
       </c>
       <c r="O15">
-        <v>0.8013344154674376</v>
+        <v>0.9435451170423201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -956,34 +956,34 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.9348554969182781</v>
+        <v>0.9723333995106044</v>
       </c>
       <c r="D16">
-        <v>0.8835043614420441</v>
+        <v>0.9466450994696032</v>
       </c>
       <c r="E16">
-        <v>0.8947345348306686</v>
+        <v>0.9506782746857758</v>
       </c>
       <c r="F16">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G16">
-        <v>0.8356729057172521</v>
+        <v>0.9518653352548426</v>
       </c>
       <c r="H16">
-        <v>0.8843057604557392</v>
+        <v>0.9475037714605324</v>
       </c>
       <c r="L16">
-        <v>0.9058313811071339</v>
+        <v>0.9642085756135909</v>
       </c>
       <c r="M16">
-        <v>0.8608993289158599</v>
+        <v>0.9257024588139902</v>
       </c>
       <c r="N16">
-        <v>0.8125746769626757</v>
+        <v>0.9375774956079905</v>
       </c>
       <c r="O16">
-        <v>0.8013114016640279</v>
+        <v>0.9435413095084139</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -994,34 +994,34 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.9347988465042318</v>
+        <v>0.972314438727412</v>
       </c>
       <c r="D17">
-        <v>0.883410507757007</v>
+        <v>0.9466175336224966</v>
       </c>
       <c r="E17">
-        <v>0.894644595647768</v>
+        <v>0.950651735020445</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8355433316960337</v>
+        <v>0.9518421437501032</v>
       </c>
       <c r="H17">
-        <v>0.8842118216389769</v>
+        <v>0.9474761806093129</v>
       </c>
       <c r="L17">
-        <v>0.9057657034163343</v>
+        <v>0.9641885898095401</v>
       </c>
       <c r="M17">
-        <v>0.8608017035030607</v>
+        <v>0.9256732970038003</v>
       </c>
       <c r="N17">
-        <v>0.8123922085569338</v>
+        <v>0.9375452352155481</v>
       </c>
       <c r="O17">
-        <v>0.8011643717954753</v>
+        <v>0.943516999565488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.9376830016864044</v>
+        <v>0.9732968422111016</v>
       </c>
       <c r="D18">
-        <v>0.8881869000677325</v>
+        <v>0.948056471168108</v>
       </c>
       <c r="E18">
-        <v>0.8992214762502132</v>
+        <v>0.9520410679423061</v>
       </c>
       <c r="F18">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8421494328440862</v>
+        <v>0.9530567247482383</v>
       </c>
       <c r="H18">
-        <v>0.8889925464649154</v>
+        <v>0.9489164233699072</v>
       </c>
       <c r="L18">
-        <v>0.9091170045587142</v>
+        <v>0.96522485571338</v>
       </c>
       <c r="M18">
-        <v>0.8657705444331839</v>
+        <v>0.9271958873455026</v>
       </c>
       <c r="N18">
-        <v>0.8216501810278273</v>
+        <v>0.9392344991384203</v>
       </c>
       <c r="O18">
-        <v>0.8086582049816228</v>
+        <v>0.9447904079111434</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1070,34 +1070,34 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.9393469271976941</v>
+        <v>0.9738791038624653</v>
       </c>
       <c r="D19">
-        <v>0.8909428786797823</v>
+        <v>0.9489205038430967</v>
       </c>
       <c r="E19">
-        <v>0.901863227243669</v>
+        <v>0.9528794316072505</v>
       </c>
       <c r="F19">
         <v>0.9999999999999999</v>
       </c>
       <c r="G19">
-        <v>0.84597344874239</v>
+        <v>0.9537901638074934</v>
       </c>
       <c r="H19">
-        <v>0.8917510249384687</v>
+        <v>0.9497812397817553</v>
       </c>
       <c r="L19">
-        <v>0.9110578817657786</v>
+        <v>0.9658398300098027</v>
       </c>
       <c r="M19">
-        <v>0.8686381000606243</v>
+        <v>0.9281105119794807</v>
       </c>
       <c r="N19">
-        <v>0.8269707000179835</v>
+        <v>0.9402543339191191</v>
       </c>
       <c r="O19">
-        <v>0.812994286414175</v>
+        <v>0.9455596320780167</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1108,34 +1108,34 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9393349733656525</v>
+        <v>0.9738748813254874</v>
       </c>
       <c r="D20">
-        <v>0.890923072454163</v>
+        <v>0.9489142052336506</v>
       </c>
       <c r="E20">
-        <v>0.9018442363300164</v>
+        <v>0.9528733082505921</v>
       </c>
       <c r="F20">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8459459309214503</v>
+        <v>0.9537848053471792</v>
       </c>
       <c r="H20">
-        <v>0.8917312007472452</v>
+        <v>0.9497749354590389</v>
       </c>
       <c r="L20">
-        <v>0.9110439175200106</v>
+        <v>0.9658353679381856</v>
       </c>
       <c r="M20">
-        <v>0.8686174903643855</v>
+        <v>0.9281038435118653</v>
       </c>
       <c r="N20">
-        <v>0.8269325056964572</v>
+        <v>0.9402468836844801</v>
       </c>
       <c r="O20">
-        <v>0.8129630877047075</v>
+        <v>0.9455540114247609</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1146,34 +1146,34 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.9347933588954521</v>
+        <v>0.9723126027603244</v>
       </c>
       <c r="D21">
-        <v>0.8834014162111236</v>
+        <v>0.9466148648389406</v>
       </c>
       <c r="E21">
-        <v>0.8946358832530172</v>
+        <v>0.9506491657383351</v>
       </c>
       <c r="F21">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G21">
-        <v>0.835530780405794</v>
+        <v>0.9518398986208889</v>
       </c>
       <c r="H21">
-        <v>0.8842027218464379</v>
+        <v>0.9474735094049876</v>
       </c>
       <c r="L21">
-        <v>0.9057593416589066</v>
+        <v>0.9641866546188596</v>
       </c>
       <c r="M21">
-        <v>0.8607922466113469</v>
+        <v>0.9256704737203618</v>
       </c>
       <c r="N21">
-        <v>0.8123745316459799</v>
+        <v>0.9375421121319083</v>
       </c>
       <c r="O21">
-        <v>0.8011501295312096</v>
+        <v>0.9435146461719072</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1184,34 +1184,34 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.9296823301813384</v>
+        <v>0.9706597409360523</v>
       </c>
       <c r="D22">
-        <v>0.8749165964961712</v>
+        <v>0.9442393153608207</v>
       </c>
       <c r="E22">
-        <v>0.8864974653750064</v>
+        <v>0.9483722267301928</v>
       </c>
       <c r="F22">
         <v>0.9999999999999999</v>
       </c>
       <c r="G22">
-        <v>0.8238488861449115</v>
+        <v>0.9498516146099044</v>
       </c>
       <c r="H22">
-        <v>0.8757102058184308</v>
+        <v>0.945095805140664</v>
       </c>
       <c r="L22">
-        <v>0.8998564049424954</v>
+        <v>0.9624463749959533</v>
       </c>
       <c r="M22">
-        <v>0.8519677170130947</v>
+        <v>0.9231582522576942</v>
       </c>
       <c r="N22">
-        <v>0.795758388584392</v>
+        <v>0.934775485679737</v>
       </c>
       <c r="O22">
-        <v>0.7878859887033777</v>
+        <v>0.9414311248838643</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1222,34 +1222,34 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.9251735778607116</v>
+        <v>0.9693014104230095</v>
       </c>
       <c r="D23">
-        <v>0.8673833749805373</v>
+        <v>0.9423224331493186</v>
       </c>
       <c r="E23">
-        <v>0.8792475265736533</v>
+        <v>0.9465481844322358</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8135213710097581</v>
+        <v>0.9482607458305827</v>
       </c>
       <c r="H23">
-        <v>0.8681701511545342</v>
+        <v>0.9431771841856078</v>
       </c>
       <c r="L23">
-        <v>0.8946834672428501</v>
+        <v>0.9610186996633683</v>
       </c>
       <c r="M23">
-        <v>0.844134472738364</v>
+        <v>0.9211321842097246</v>
       </c>
       <c r="N23">
-        <v>0.7807529421742107</v>
+        <v>0.9325605384440879</v>
       </c>
       <c r="O23">
-        <v>0.776143794303779</v>
+        <v>0.9397649083974079</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1260,34 +1260,34 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.9233324616172397</v>
+        <v>0.968775405443835</v>
       </c>
       <c r="D24">
-        <v>0.8642882851899246</v>
+        <v>0.9415874928651377</v>
       </c>
       <c r="E24">
-        <v>0.8762585626028601</v>
+        <v>0.9458516534909652</v>
       </c>
       <c r="F24">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8092882625324257</v>
+        <v>0.9476536932431231</v>
       </c>
       <c r="H24">
-        <v>0.8650722539053353</v>
+        <v>0.9424415772602138</v>
       </c>
       <c r="L24">
-        <v>0.8925799257877784</v>
+        <v>0.9604663610606421</v>
       </c>
       <c r="M24">
-        <v>0.8409164268922644</v>
+        <v>0.9203556068545187</v>
       </c>
       <c r="N24">
-        <v>0.7745014647569398</v>
+        <v>0.9317150098529556</v>
       </c>
       <c r="O24">
-        <v>0.7713260941357059</v>
+        <v>0.939129287291356</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1298,34 +1298,34 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.9320235846864927</v>
+        <v>0.971402512821942</v>
       </c>
       <c r="D25">
-        <v>0.8788084703257605</v>
+        <v>0.9453004487010482</v>
       </c>
       <c r="E25">
-        <v>0.8902328206354835</v>
+        <v>0.9493869089884963</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8291997942436714</v>
+        <v>0.9507373239545897</v>
       </c>
       <c r="H25">
-        <v>0.8796056098443436</v>
+        <v>0.9461579010015644</v>
       </c>
       <c r="L25">
-        <v>0.9025550347351787</v>
+        <v>0.9632279792700686</v>
       </c>
       <c r="M25">
-        <v>0.8560151258974968</v>
+        <v>0.9242802332416815</v>
       </c>
       <c r="N25">
-        <v>0.8034118058621612</v>
+        <v>0.9360081295287115</v>
       </c>
       <c r="O25">
-        <v>0.7939638272584335</v>
+        <v>0.9423591046471748</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -424,34 +424,40 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9773520444207801</v>
+        <v>0.9842905732752075</v>
       </c>
       <c r="D2">
-        <v>0.9543152958162814</v>
+        <v>0.9811283385523365</v>
       </c>
       <c r="E2">
-        <v>0.9582015157281115</v>
+        <v>0.9698376372579449</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9584562192782538</v>
+        <v>0.9512246635179655</v>
       </c>
       <c r="H2">
-        <v>0.9551809252010338</v>
+        <v>0.9820182892046919</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L2">
-        <v>0.9695248790727012</v>
+        <v>0.9764981810933594</v>
       </c>
       <c r="M2">
-        <v>0.9338291813329535</v>
+        <v>0.9612184336118453</v>
       </c>
       <c r="N2">
-        <v>0.9467395913474621</v>
+        <v>0.9584380989516799</v>
       </c>
       <c r="O2">
-        <v>0.9504588672154154</v>
+        <v>0.943132282360777</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,34 +468,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9787449255614321</v>
+        <v>0.9847614301686957</v>
       </c>
       <c r="D3">
-        <v>0.9566603145303347</v>
+        <v>0.9816092177497895</v>
       </c>
       <c r="E3">
-        <v>0.9605777778798741</v>
+        <v>0.9707693143861075</v>
       </c>
       <c r="F3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9605458901460937</v>
+        <v>0.9529905537392948</v>
       </c>
       <c r="H3">
-        <v>0.9575280710077952</v>
+        <v>0.9824996045925378</v>
+      </c>
+      <c r="I3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9710155883320741</v>
+        <v>0.9770603059090565</v>
       </c>
       <c r="M3">
-        <v>0.9363209389686052</v>
+        <v>0.9617999667312049</v>
       </c>
       <c r="N3">
-        <v>0.9496437474603603</v>
+        <v>0.9598753472600494</v>
       </c>
       <c r="O3">
-        <v>0.9526568489051052</v>
+        <v>0.9450083754515111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -500,34 +512,40 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9796948347367467</v>
+        <v>0.9850031324577605</v>
       </c>
       <c r="D4">
-        <v>0.9583672781438106</v>
+        <v>0.9819638406804874</v>
       </c>
       <c r="E4">
-        <v>0.9623419063884882</v>
+        <v>0.9715399486368698</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G4">
-        <v>0.9621002288783299</v>
+        <v>0.9543414143742412</v>
       </c>
       <c r="H4">
-        <v>0.9592365829542686</v>
+        <v>0.9828545491905407</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L4">
-        <v>0.9720397813956198</v>
+        <v>0.9773715164757277</v>
       </c>
       <c r="M4">
-        <v>0.9381380836259479</v>
+        <v>0.9622319600074517</v>
       </c>
       <c r="N4">
-        <v>0.9518046843571263</v>
+        <v>0.9610302211027776</v>
       </c>
       <c r="O4">
-        <v>0.9542938149014041</v>
+        <v>0.9464437657231575</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -538,34 +556,40 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9801408591636842</v>
+        <v>0.9851270066711019</v>
       </c>
       <c r="D5">
-        <v>0.9592141891442756</v>
+        <v>0.9821867405528472</v>
       </c>
       <c r="E5">
-        <v>0.9632307717889166</v>
+        <v>0.9720502289313449</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9628844653949439</v>
+        <v>0.9550840420252859</v>
       </c>
       <c r="H5">
-        <v>0.9600842621610606</v>
+        <v>0.983077651248363</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L5">
-        <v>0.9725238731915415</v>
+        <v>0.977531440146133</v>
       </c>
       <c r="M5">
-        <v>0.9390410107474567</v>
+        <v>0.9624958020644644</v>
       </c>
       <c r="N5">
-        <v>0.9528954492518774</v>
+        <v>0.9617387384972735</v>
       </c>
       <c r="O5">
-        <v>0.9551205384500632</v>
+        <v>0.9472304333549333</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -576,34 +600,40 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.9803228908569025</v>
+        <v>0.9851920106479626</v>
       </c>
       <c r="D6">
-        <v>0.9595709796282883</v>
+        <v>0.9823025138319582</v>
       </c>
       <c r="E6">
-        <v>0.9636083939858976</v>
+        <v>0.9723160284762229</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9632178731693578</v>
+        <v>0.9554250139826906</v>
       </c>
       <c r="H6">
-        <v>0.9604413762784975</v>
+        <v>0.9831935295417734</v>
+      </c>
+      <c r="I6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L6">
-        <v>0.9727222230810503</v>
+        <v>0.9776120882110791</v>
       </c>
       <c r="M6">
-        <v>0.9394217159708234</v>
+        <v>0.9626296441108028</v>
       </c>
       <c r="N6">
-        <v>0.953359304188821</v>
+        <v>0.9620900712332151</v>
       </c>
       <c r="O6">
-        <v>0.9554721913041527</v>
+        <v>0.9475905412893052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -614,34 +644,40 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9803228908569025</v>
+        <v>0.9851920106479626</v>
       </c>
       <c r="D7">
-        <v>0.9595709796282883</v>
+        <v>0.9823025138319582</v>
       </c>
       <c r="E7">
-        <v>0.9636083939858976</v>
+        <v>0.9723160284762229</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9632178731693578</v>
+        <v>0.9554250139826906</v>
       </c>
       <c r="H7">
-        <v>0.9604413762784975</v>
+        <v>0.9831935295417734</v>
+      </c>
+      <c r="I7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L7">
-        <v>0.9727222230810503</v>
+        <v>0.9776120882110791</v>
       </c>
       <c r="M7">
-        <v>0.9394217159708234</v>
+        <v>0.9626296441108028</v>
       </c>
       <c r="N7">
-        <v>0.953359304188821</v>
+        <v>0.9620900712332151</v>
       </c>
       <c r="O7">
-        <v>0.9554721913041527</v>
+        <v>0.9475905412893052</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -652,34 +688,40 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9802785576336249</v>
+        <v>0.9851963447129699</v>
       </c>
       <c r="D8">
-        <v>0.9594834102319267</v>
+        <v>0.9822976981034642</v>
       </c>
       <c r="E8">
-        <v>0.9635155267855273</v>
+        <v>0.9723008864926829</v>
       </c>
       <c r="F8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9631358659848587</v>
+        <v>0.9553654879880982</v>
       </c>
       <c r="H8">
-        <v>0.9603537274506913</v>
+        <v>0.9831887094450836</v>
+      </c>
+      <c r="I8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.972673868324171</v>
+        <v>0.9776127300166201</v>
       </c>
       <c r="M8">
-        <v>0.939328258457981</v>
+        <v>0.9626208767159098</v>
       </c>
       <c r="N8">
-        <v>0.953245203260354</v>
+        <v>0.962054607473355</v>
       </c>
       <c r="O8">
-        <v>0.9553856858552044</v>
+        <v>0.9475265134078941</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -690,34 +732,40 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.9795875025155213</v>
+        <v>0.9850903731009196</v>
       </c>
       <c r="D9">
-        <v>0.9581684574427475</v>
+        <v>0.9820719060691018</v>
       </c>
       <c r="E9">
-        <v>0.9621346472824567</v>
+        <v>0.9717786797404243</v>
       </c>
       <c r="F9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G9">
-        <v>0.9619174739392945</v>
+        <v>0.954336133454451</v>
       </c>
       <c r="H9">
-        <v>0.9590375819092017</v>
+        <v>0.9829627126018696</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9719236381435616</v>
+        <v>0.9774514275959572</v>
       </c>
       <c r="M9">
-        <v>0.937926253259975</v>
+        <v>0.9623340173835342</v>
       </c>
       <c r="N9">
-        <v>0.9515505507268847</v>
+        <v>0.9612285952560575</v>
       </c>
       <c r="O9">
-        <v>0.9541012404150635</v>
+        <v>0.9464298190309282</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -728,34 +776,40 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9774625065754827</v>
+        <v>0.9843638546829151</v>
       </c>
       <c r="D10">
-        <v>0.9544961363254286</v>
+        <v>0.9812498842331583</v>
       </c>
       <c r="E10">
-        <v>0.9583831256041925</v>
+        <v>0.9701197462836108</v>
       </c>
       <c r="F10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G10">
-        <v>0.9586157760056971</v>
+        <v>0.9514460344886316</v>
       </c>
       <c r="H10">
-        <v>0.9553619297449185</v>
+        <v>0.9821399451357771</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L10">
-        <v>0.9696427387633458</v>
+        <v>0.9765786327527867</v>
       </c>
       <c r="M10">
-        <v>0.9340211795739423</v>
+        <v>0.9613493920483031</v>
       </c>
       <c r="N10">
-        <v>0.9469613200609243</v>
+        <v>0.9587622369341264</v>
       </c>
       <c r="O10">
-        <v>0.950626595704821</v>
+        <v>0.9433627764895385</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -766,34 +820,40 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9748689292287538</v>
+        <v>0.983150898026499</v>
       </c>
       <c r="D11">
-        <v>0.9504114862214637</v>
+        <v>0.9802397245915735</v>
       </c>
       <c r="E11">
-        <v>0.9543341647077224</v>
+        <v>0.9683209464676763</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9550638063553704</v>
+        <v>0.9483517822023083</v>
       </c>
       <c r="H11">
-        <v>0.9512735745833356</v>
+        <v>0.9811288692101582</v>
+      </c>
+      <c r="I11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L11">
-        <v>0.9668868274139121</v>
+        <v>0.9752137560304796</v>
       </c>
       <c r="M11">
-        <v>0.9296895161211729</v>
+        <v>0.9601709278226146</v>
       </c>
       <c r="N11">
-        <v>0.9420249381170074</v>
+        <v>0.9561195670059685</v>
       </c>
       <c r="O11">
-        <v>0.9468959243232355</v>
+        <v>0.9400862169863465</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -804,34 +864,40 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9734392118652518</v>
+        <v>0.9824172345915887</v>
       </c>
       <c r="D12">
-        <v>0.94826691944806</v>
+        <v>0.9797054575049613</v>
       </c>
       <c r="E12">
-        <v>0.9522449671963078</v>
+        <v>0.967446583497253</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G12">
-        <v>0.9532350681961522</v>
+        <v>0.9467899189745098</v>
       </c>
       <c r="H12">
-        <v>0.9491270625408735</v>
+        <v>0.9805941175066785</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.9999999999999997</v>
       </c>
       <c r="L12">
-        <v>0.9653751663401665</v>
+        <v>0.9744038021747637</v>
       </c>
       <c r="M12">
-        <v>0.9274186317852324</v>
+        <v>0.9595527172830182</v>
       </c>
       <c r="N12">
-        <v>0.939482498783516</v>
+        <v>0.9548200488617202</v>
       </c>
       <c r="O12">
-        <v>0.944977434138223</v>
+        <v>0.9384332650196805</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -842,34 +908,40 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9722409428425127</v>
+        <v>0.9820023940045377</v>
       </c>
       <c r="D13">
-        <v>0.946510755333466</v>
+        <v>0.9793299024301726</v>
       </c>
       <c r="E13">
-        <v>0.9505489586392033</v>
+        <v>0.966786926731754</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9517523369277658</v>
+        <v>0.9456037364257021</v>
       </c>
       <c r="H13">
-        <v>0.9473693054650555</v>
+        <v>0.9802182217776954</v>
+      </c>
+      <c r="I13">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L13">
-        <v>0.9641111258541468</v>
+        <v>0.9739300288623493</v>
       </c>
       <c r="M13">
-        <v>0.9255603389508904</v>
+        <v>0.9591117086934322</v>
       </c>
       <c r="N13">
-        <v>0.9374203080226988</v>
+        <v>0.9538204694223799</v>
       </c>
       <c r="O13">
-        <v>0.9434228634192503</v>
+        <v>0.9371750876344642</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -880,34 +952,40 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9720230241673952</v>
+        <v>0.9820878612303036</v>
       </c>
       <c r="D14">
-        <v>0.9461948207369479</v>
+        <v>0.9793223922251755</v>
       </c>
       <c r="E14">
-        <v>0.9502451127247138</v>
+        <v>0.9667386462022428</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.951486867414099</v>
+        <v>0.9454559575221704</v>
       </c>
       <c r="H14">
-        <v>0.9470530842942034</v>
+        <v>0.9802107047604277</v>
+      </c>
+      <c r="I14">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L14">
-        <v>0.9638814887877987</v>
+        <v>0.9740065569032638</v>
       </c>
       <c r="M14">
-        <v>0.925226140979285</v>
+        <v>0.9590939472817183</v>
       </c>
       <c r="N14">
-        <v>0.9370510037041635</v>
+        <v>0.9537132446086847</v>
       </c>
       <c r="O14">
-        <v>0.9431446122253315</v>
+        <v>0.9370151759200641</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -918,34 +996,40 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9723363685275841</v>
+        <v>0.9823056960329208</v>
       </c>
       <c r="D15">
-        <v>0.946649416628798</v>
+        <v>0.9794752703124122</v>
       </c>
       <c r="E15">
-        <v>0.9506824313911408</v>
+        <v>0.967002473493154</v>
       </c>
       <c r="F15">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9518689675980906</v>
+        <v>0.9458182784858243</v>
       </c>
       <c r="H15">
-        <v>0.9475080925356868</v>
+        <v>0.980363721518568</v>
+      </c>
+      <c r="I15">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L15">
-        <v>0.964211705185073</v>
+        <v>0.9742404544516418</v>
       </c>
       <c r="M15">
-        <v>0.9257070259434191</v>
+        <v>0.9592647976845325</v>
       </c>
       <c r="N15">
-        <v>0.9375825483364657</v>
+        <v>0.9540662897119947</v>
       </c>
       <c r="O15">
-        <v>0.9435451170423201</v>
+        <v>0.9373965007352465</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -956,34 +1040,40 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.9723333995106044</v>
+        <v>0.9823374137063791</v>
       </c>
       <c r="D16">
-        <v>0.9466450994696032</v>
+        <v>0.979461474895316</v>
       </c>
       <c r="E16">
-        <v>0.9506782746857758</v>
+        <v>0.966941949677253</v>
       </c>
       <c r="F16">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9518653352548426</v>
+        <v>0.9458018467489353</v>
       </c>
       <c r="H16">
-        <v>0.9475037714605324</v>
+        <v>0.9803499135880829</v>
+      </c>
+      <c r="I16">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L16">
-        <v>0.9642085756135909</v>
+        <v>0.9742723345537855</v>
       </c>
       <c r="M16">
-        <v>0.9257024588139902</v>
+        <v>0.9592505526722926</v>
       </c>
       <c r="N16">
-        <v>0.9375774956079905</v>
+        <v>0.9540036222581363</v>
       </c>
       <c r="O16">
-        <v>0.9435413095084139</v>
+        <v>0.9373797552456503</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -994,34 +1084,40 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.972314438727412</v>
+        <v>0.9823555207486688</v>
       </c>
       <c r="D17">
-        <v>0.9466175336224966</v>
+        <v>0.9794335327439438</v>
       </c>
       <c r="E17">
-        <v>0.950651735020445</v>
+        <v>0.9668510594601664</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9518421437501032</v>
+        <v>0.945760194684361</v>
       </c>
       <c r="H17">
-        <v>0.9474761806093129</v>
+        <v>0.9803219460912642</v>
+      </c>
+      <c r="I17">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L17">
-        <v>0.9641885898095401</v>
+        <v>0.9742897575009037</v>
       </c>
       <c r="M17">
-        <v>0.9256732970038003</v>
+        <v>0.9592210966808317</v>
       </c>
       <c r="N17">
-        <v>0.9375452352155481</v>
+        <v>0.9539056389477143</v>
       </c>
       <c r="O17">
-        <v>0.943516999565488</v>
+        <v>0.937336747073798</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1032,34 +1128,40 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.9732968422111016</v>
+        <v>0.9827867998449417</v>
       </c>
       <c r="D18">
-        <v>0.948056471168108</v>
+        <v>0.9797765586449896</v>
       </c>
       <c r="E18">
-        <v>0.9520410679423061</v>
+        <v>0.9674405499474078</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9530567247482383</v>
+        <v>0.9467684789817361</v>
       </c>
       <c r="H18">
-        <v>0.9489164233699072</v>
+        <v>0.9806652831403141</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L18">
-        <v>0.96522485571338</v>
+        <v>0.9747700908107946</v>
       </c>
       <c r="M18">
-        <v>0.9271958873455026</v>
+        <v>0.9596184939631849</v>
       </c>
       <c r="N18">
-        <v>0.9392344991384203</v>
+        <v>0.9547745343684303</v>
       </c>
       <c r="O18">
-        <v>0.9447904079111434</v>
+        <v>0.9384043402627187</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1070,34 +1172,40 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.9738791038624653</v>
+        <v>0.9830032890252697</v>
       </c>
       <c r="D19">
-        <v>0.9489205038430967</v>
+        <v>0.9799577675828783</v>
       </c>
       <c r="E19">
-        <v>0.9528794316072505</v>
+        <v>0.9677475123646305</v>
       </c>
       <c r="F19">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9537901638074934</v>
+        <v>0.9473556670944514</v>
       </c>
       <c r="H19">
-        <v>0.9497812397817553</v>
+        <v>0.98084665644713</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9658398300098027</v>
+        <v>0.975016156709174</v>
       </c>
       <c r="M19">
-        <v>0.9281105119794807</v>
+        <v>0.9598323277670746</v>
       </c>
       <c r="N19">
-        <v>0.9402543339191191</v>
+        <v>0.9552502288399704</v>
       </c>
       <c r="O19">
-        <v>0.9455596320780167</v>
+        <v>0.9390274224138258</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1108,34 +1216,40 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9738748813254874</v>
+        <v>0.9828363654067928</v>
       </c>
       <c r="D20">
-        <v>0.9489142052336506</v>
+        <v>0.9799168850626159</v>
       </c>
       <c r="E20">
-        <v>0.9528733082505921</v>
+        <v>0.9677252194202214</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G20">
-        <v>0.9537848053471792</v>
+        <v>0.9473098458567025</v>
       </c>
       <c r="H20">
-        <v>0.9497749354590389</v>
+        <v>0.9808057368436198</v>
+      </c>
+      <c r="I20">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9658353679381856</v>
+        <v>0.9748475017019447</v>
       </c>
       <c r="M20">
-        <v>0.9281038435118653</v>
+        <v>0.9597903213236832</v>
       </c>
       <c r="N20">
-        <v>0.9402468836844801</v>
+        <v>0.9552262777431489</v>
       </c>
       <c r="O20">
-        <v>0.9455540114247609</v>
+        <v>0.9389809226738215</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1146,34 +1260,40 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.9723126027603244</v>
+        <v>0.9817879768660259</v>
       </c>
       <c r="D21">
-        <v>0.9466148648389406</v>
+        <v>0.9792444082730241</v>
       </c>
       <c r="E21">
-        <v>0.9506491657383351</v>
+        <v>0.9666764365630872</v>
       </c>
       <c r="F21">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G21">
-        <v>0.9518398986208889</v>
+        <v>0.9455600584940287</v>
       </c>
       <c r="H21">
-        <v>0.9474735094049876</v>
+        <v>0.980132650071486</v>
+      </c>
+      <c r="I21">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9641866546188596</v>
+        <v>0.9737168284953315</v>
       </c>
       <c r="M21">
-        <v>0.9256704737203618</v>
+        <v>0.9590276185139186</v>
       </c>
       <c r="N21">
-        <v>0.9375421121319083</v>
+        <v>0.9537266232386542</v>
       </c>
       <c r="O21">
-        <v>0.9435146461719072</v>
+        <v>0.9371344723387238</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1184,34 +1304,40 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.9706597409360523</v>
+        <v>0.9808279762086934</v>
       </c>
       <c r="D22">
-        <v>0.9442393153608207</v>
+        <v>0.9785705444238441</v>
       </c>
       <c r="E22">
-        <v>0.9483722267301928</v>
+        <v>0.9655805507542865</v>
       </c>
       <c r="F22">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9498516146099044</v>
+        <v>0.9438134485673872</v>
       </c>
       <c r="H22">
-        <v>0.945095805140664</v>
+        <v>0.9794581749816066</v>
+      </c>
+      <c r="I22">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="J22">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L22">
-        <v>0.9624463749959533</v>
+        <v>0.9726754884541766</v>
       </c>
       <c r="M22">
-        <v>0.9231582522576942</v>
+        <v>0.9582637016743164</v>
       </c>
       <c r="N22">
-        <v>0.934775485679737</v>
+        <v>0.9521744115393942</v>
       </c>
       <c r="O22">
-        <v>0.9414311248838643</v>
+        <v>0.9352909368162606</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1222,34 +1348,40 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.9693014104230095</v>
+        <v>0.9800518008275102</v>
       </c>
       <c r="D23">
-        <v>0.9423224331493186</v>
+        <v>0.9780215174746277</v>
       </c>
       <c r="E23">
-        <v>0.9465481844322358</v>
+        <v>0.9646824591353366</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9482607458305827</v>
+        <v>0.9424238660135128</v>
       </c>
       <c r="H23">
-        <v>0.9431771841856078</v>
+        <v>0.9789086500273156</v>
+      </c>
+      <c r="I23">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L23">
-        <v>0.9610186996633683</v>
+        <v>0.9718353181777779</v>
       </c>
       <c r="M23">
-        <v>0.9211321842097246</v>
+        <v>0.9576436476299582</v>
       </c>
       <c r="N23">
-        <v>0.9325605384440879</v>
+        <v>0.9509141089728387</v>
       </c>
       <c r="O23">
-        <v>0.9397649083974079</v>
+        <v>0.9338248413287749</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1260,34 +1392,40 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.968775405443835</v>
+        <v>0.97976407995092</v>
       </c>
       <c r="D24">
-        <v>0.9415874928651377</v>
+        <v>0.9778043429007098</v>
       </c>
       <c r="E24">
-        <v>0.9458516534909652</v>
+        <v>0.964309909663876</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9476536932431231</v>
+        <v>0.9418894930470122</v>
       </c>
       <c r="H24">
-        <v>0.9424415772602138</v>
+        <v>0.9786912784611733</v>
+      </c>
+      <c r="I24">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L24">
-        <v>0.9604663610606421</v>
+        <v>0.9715235152983457</v>
       </c>
       <c r="M24">
-        <v>0.9203556068545187</v>
+        <v>0.9573994685050894</v>
       </c>
       <c r="N24">
-        <v>0.9317150098529556</v>
+        <v>0.9504033447476451</v>
       </c>
       <c r="O24">
-        <v>0.939129287291356</v>
+        <v>0.9332614349251654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1298,34 +1436,40 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.971402512821942</v>
+        <v>0.9813346941439727</v>
       </c>
       <c r="D25">
-        <v>0.9453004487010482</v>
+        <v>0.9788033680055725</v>
       </c>
       <c r="E25">
-        <v>0.9493869089884963</v>
+        <v>0.9658069236334917</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G25">
-        <v>0.9507373239545897</v>
+        <v>0.9445172624681694</v>
       </c>
       <c r="H25">
-        <v>0.9461579010015644</v>
+        <v>0.9796912097502821</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9632279792700686</v>
+        <v>0.9732189799086438</v>
       </c>
       <c r="M25">
-        <v>0.9242802332416815</v>
+        <v>0.9585348889415</v>
       </c>
       <c r="N25">
-        <v>0.9360081295287115</v>
+        <v>0.9525974055419647</v>
       </c>
       <c r="O25">
-        <v>0.9423591046471748</v>
+        <v>0.9360369856595493</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,11 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,43 +427,46 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9842905732752075</v>
+        <v>0.9842856185156087</v>
       </c>
       <c r="D2">
-        <v>0.9811283385523365</v>
+        <v>0.9823922745152024</v>
       </c>
       <c r="E2">
-        <v>0.9698376372579449</v>
+        <v>0.9706561299571602</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9512246635179655</v>
+        <v>0.9525433943444004</v>
       </c>
       <c r="H2">
-        <v>0.9820182892046919</v>
+        <v>0.9964110046293333</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L2">
-        <v>0.9764981810933594</v>
+        <v>0.9764931831308745</v>
       </c>
       <c r="M2">
-        <v>0.9612184336118453</v>
+        <v>0.962509957802002</v>
       </c>
       <c r="N2">
-        <v>0.9584380989516799</v>
+        <v>0.9592712839898717</v>
       </c>
       <c r="O2">
-        <v>0.943132282360777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9444634420841307</v>
+      </c>
+      <c r="P2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -468,43 +474,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9847614301686957</v>
+        <v>0.984207925312686</v>
       </c>
       <c r="D3">
-        <v>0.9816092177497895</v>
+        <v>0.9826695052575066</v>
       </c>
       <c r="E3">
-        <v>0.9707693143861075</v>
+        <v>0.9714549742903393</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9529905537392948</v>
+        <v>0.9540939086721696</v>
       </c>
       <c r="H3">
-        <v>0.9824996045925378</v>
+        <v>0.9964660551161343</v>
       </c>
       <c r="I3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L3">
-        <v>0.9770603059090565</v>
+        <v>0.9765020821420527</v>
       </c>
       <c r="M3">
-        <v>0.9617999667312049</v>
+        <v>0.9628831619525003</v>
       </c>
       <c r="N3">
-        <v>0.9598753472600494</v>
+        <v>0.9605723663724293</v>
       </c>
       <c r="O3">
-        <v>0.9450083754515111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.9461218515664338</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -512,43 +521,46 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9850031324577605</v>
+        <v>0.9840121366728384</v>
       </c>
       <c r="D4">
-        <v>0.9819638406804874</v>
+        <v>0.9828558995786786</v>
       </c>
       <c r="E4">
-        <v>0.9715399486368698</v>
+        <v>0.9721161768969678</v>
       </c>
       <c r="F4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G4">
-        <v>0.9543414143742412</v>
+        <v>0.9552678632955404</v>
       </c>
       <c r="H4">
-        <v>0.9828545491905407</v>
+        <v>0.9965204205714459</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9773715164757277</v>
+        <v>0.9763722157781995</v>
       </c>
       <c r="M4">
-        <v>0.9622319600074517</v>
+        <v>0.9631431423144822</v>
       </c>
       <c r="N4">
-        <v>0.9610302211027776</v>
+        <v>0.961615397622728</v>
       </c>
       <c r="O4">
-        <v>0.9464437657231575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.9473785373123393</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,43 +568,46 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9851270066711019</v>
+        <v>0.9839962495659318</v>
       </c>
       <c r="D5">
-        <v>0.9821867405528472</v>
+        <v>0.9830238564297094</v>
       </c>
       <c r="E5">
-        <v>0.9720502289313449</v>
+        <v>0.9725905968416161</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G5">
-        <v>0.9550840420252859</v>
+        <v>0.9559525401387871</v>
       </c>
       <c r="H5">
-        <v>0.983077651248363</v>
+        <v>0.9965537702569518</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L5">
-        <v>0.977531440146133</v>
+        <v>0.976391291983343</v>
       </c>
       <c r="M5">
-        <v>0.9624958020644644</v>
+        <v>0.9633507892848107</v>
       </c>
       <c r="N5">
-        <v>0.9617387384972735</v>
+        <v>0.9622872106762933</v>
       </c>
       <c r="O5">
-        <v>0.9472304333549333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.9481066484138572</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -600,22 +615,22 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.9851920106479626</v>
+        <v>0.9839932047502864</v>
       </c>
       <c r="D6">
-        <v>0.9823025138319582</v>
+        <v>0.9831094596715885</v>
       </c>
       <c r="E6">
-        <v>0.9723160284762229</v>
+        <v>0.9728367449467312</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9554250139826906</v>
+        <v>0.9562618425949592</v>
       </c>
       <c r="H6">
-        <v>0.9831935295417734</v>
+        <v>0.9965798310357611</v>
       </c>
       <c r="I6">
         <v>0.9999999999999998</v>
@@ -624,19 +639,22 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="L6">
-        <v>0.9776120882110791</v>
+        <v>0.97640336496034</v>
       </c>
       <c r="M6">
-        <v>0.9626296441108028</v>
+        <v>0.963453785900794</v>
       </c>
       <c r="N6">
-        <v>0.9620900712332151</v>
+        <v>0.9626184784195158</v>
       </c>
       <c r="O6">
-        <v>0.9475905412893052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.9484347700789146</v>
+      </c>
+      <c r="P6">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -644,22 +662,22 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9851920106479626</v>
+        <v>0.9839932047502864</v>
       </c>
       <c r="D7">
-        <v>0.9823025138319582</v>
+        <v>0.9831094596715885</v>
       </c>
       <c r="E7">
-        <v>0.9723160284762229</v>
+        <v>0.9728367449467312</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9554250139826906</v>
+        <v>0.9562618425949592</v>
       </c>
       <c r="H7">
-        <v>0.9831935295417734</v>
+        <v>0.9965798310357611</v>
       </c>
       <c r="I7">
         <v>0.9999999999999998</v>
@@ -668,19 +686,22 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="L7">
-        <v>0.9776120882110791</v>
+        <v>0.97640336496034</v>
       </c>
       <c r="M7">
-        <v>0.9626296441108028</v>
+        <v>0.963453785900794</v>
       </c>
       <c r="N7">
-        <v>0.9620900712332151</v>
+        <v>0.9626184784195158</v>
       </c>
       <c r="O7">
-        <v>0.9475905412893052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.9484347700789146</v>
+      </c>
+      <c r="P7">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -688,43 +709,46 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9851963447129699</v>
+        <v>0.9836886665570198</v>
       </c>
       <c r="D8">
-        <v>0.9822976981034642</v>
+        <v>0.9829626398822071</v>
       </c>
       <c r="E8">
-        <v>0.9723008864926829</v>
+        <v>0.9727299841280712</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G8">
-        <v>0.9553654879880982</v>
+        <v>0.9560551320797073</v>
       </c>
       <c r="H8">
-        <v>0.9831887094450836</v>
+        <v>0.9966333738066553</v>
       </c>
       <c r="I8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9776127300166201</v>
+        <v>0.9760925631993499</v>
       </c>
       <c r="M8">
-        <v>0.9626208767159098</v>
+        <v>0.9632999963289871</v>
       </c>
       <c r="N8">
-        <v>0.962054607473355</v>
+        <v>0.962490066709894</v>
       </c>
       <c r="O8">
-        <v>0.9475265134078941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9482222640480371</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -732,22 +756,22 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.9850903731009196</v>
+        <v>0.9840436751323023</v>
       </c>
       <c r="D9">
-        <v>0.9820719060691018</v>
+        <v>0.9829093376236239</v>
       </c>
       <c r="E9">
-        <v>0.9717786797404243</v>
+        <v>0.9723195153540241</v>
       </c>
       <c r="F9">
         <v>0.9999999999999999</v>
       </c>
       <c r="G9">
-        <v>0.954336133454451</v>
+        <v>0.9552060439611707</v>
       </c>
       <c r="H9">
-        <v>0.9829627126018696</v>
+        <v>0.9966077272869069</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -756,19 +780,22 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9774514275959572</v>
+        <v>0.9763959411307828</v>
       </c>
       <c r="M9">
-        <v>0.9623340173835342</v>
+        <v>0.9631894133681357</v>
       </c>
       <c r="N9">
-        <v>0.9612285952560575</v>
+        <v>0.9617778876945021</v>
       </c>
       <c r="O9">
-        <v>0.9464298190309282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9473075616300297</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -776,43 +803,46 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9843638546829151</v>
+        <v>0.9834492971805427</v>
       </c>
       <c r="D10">
-        <v>0.9812498842331583</v>
+        <v>0.9819887632370653</v>
       </c>
       <c r="E10">
-        <v>0.9701197462836108</v>
+        <v>0.970598077185709</v>
       </c>
       <c r="F10">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.9522168085000968</v>
+      </c>
+      <c r="H10">
+        <v>0.9965048235386001</v>
+      </c>
+      <c r="I10">
         <v>0.9999999999999998</v>
       </c>
-      <c r="G10">
-        <v>0.9514460344886316</v>
-      </c>
-      <c r="H10">
-        <v>0.9821399451357771</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9765786327527867</v>
+        <v>0.9756561067652387</v>
       </c>
       <c r="M10">
-        <v>0.9613493920483031</v>
+        <v>0.9621043925753949</v>
       </c>
       <c r="N10">
-        <v>0.9587622369341264</v>
+        <v>0.9592491024291342</v>
       </c>
       <c r="O10">
-        <v>0.9433627764895385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9441408033877867</v>
+      </c>
+      <c r="P10">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -820,43 +850,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.983150898026499</v>
+        <v>0.9825351536816112</v>
       </c>
       <c r="D11">
-        <v>0.9802397245915735</v>
+        <v>0.9807839917729119</v>
       </c>
       <c r="E11">
-        <v>0.9683209464676763</v>
+        <v>0.9686742062717366</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9483517822023083</v>
+        <v>0.9489220611198881</v>
       </c>
       <c r="H11">
-        <v>0.9811288692101582</v>
+        <v>0.9960043052070354</v>
       </c>
       <c r="I11">
         <v>0.9999999999999999</v>
       </c>
       <c r="J11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="L11">
-        <v>0.9752137560304796</v>
+        <v>0.9745924394234534</v>
       </c>
       <c r="M11">
-        <v>0.9601709278226146</v>
+        <v>0.9607272838183076</v>
       </c>
       <c r="N11">
-        <v>0.9561195670059685</v>
+        <v>0.9564799648706356</v>
       </c>
       <c r="O11">
-        <v>0.9400862169863465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9406621091854512</v>
+      </c>
+      <c r="P11">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -864,43 +897,46 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9824172345915887</v>
+        <v>0.9826288801907875</v>
       </c>
       <c r="D12">
-        <v>0.9797054575049613</v>
+        <v>0.9805704099930987</v>
       </c>
       <c r="E12">
-        <v>0.967446583497253</v>
+        <v>0.9680087060228898</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.9467899189745098</v>
+        <v>0.9476982157970335</v>
       </c>
       <c r="H12">
-        <v>0.9805941175066785</v>
+        <v>0.9959438848444845</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J12">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9744038021747637</v>
+        <v>0.974617397938373</v>
       </c>
       <c r="M12">
-        <v>0.9595527172830182</v>
+        <v>0.9604370440786859</v>
       </c>
       <c r="N12">
-        <v>0.9548200488617202</v>
+        <v>0.9553942045327303</v>
       </c>
       <c r="O12">
-        <v>0.9384332650196805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9393506978406975</v>
+      </c>
+      <c r="P12">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -908,43 +944,46 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9820023940045377</v>
+        <v>0.9826248599258803</v>
       </c>
       <c r="D13">
-        <v>0.9793299024301726</v>
+        <v>0.9804497460822352</v>
       </c>
       <c r="E13">
-        <v>0.966786926731754</v>
+        <v>0.9675154542125629</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G13">
-        <v>0.9456037364257021</v>
+        <v>0.9467817762376443</v>
       </c>
       <c r="H13">
-        <v>0.9802182217776954</v>
+        <v>0.9959659448579774</v>
       </c>
       <c r="I13">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0.9999999999999999</v>
       </c>
       <c r="L13">
-        <v>0.9739300288623493</v>
+        <v>0.9745583116245271</v>
       </c>
       <c r="M13">
-        <v>0.9591117086934322</v>
+        <v>0.960256801504073</v>
       </c>
       <c r="N13">
-        <v>0.9538204694223799</v>
+        <v>0.9545652967175593</v>
       </c>
       <c r="O13">
-        <v>0.9371750876344642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9383651790155287</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -952,43 +991,46 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9820878612303036</v>
+        <v>0.9829590583684567</v>
       </c>
       <c r="D14">
-        <v>0.9793223922251755</v>
+        <v>0.9807462564848412</v>
       </c>
       <c r="E14">
-        <v>0.9667386462022428</v>
+        <v>0.9676650863004045</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9454559575221704</v>
+        <v>0.9469542444962626</v>
       </c>
       <c r="H14">
-        <v>0.9802107047604277</v>
+        <v>0.9961187903082729</v>
       </c>
       <c r="I14">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L14">
-        <v>0.9740065569032638</v>
+        <v>0.9748859105067971</v>
       </c>
       <c r="M14">
-        <v>0.9590939472817183</v>
+        <v>0.9605499387122443</v>
       </c>
       <c r="N14">
-        <v>0.9537132446086847</v>
+        <v>0.9546605616746113</v>
       </c>
       <c r="O14">
-        <v>0.9370151759200641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9385288287052747</v>
+      </c>
+      <c r="P14">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -996,43 +1038,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9823056960329208</v>
+        <v>0.9831670875473459</v>
       </c>
       <c r="D15">
-        <v>0.9794752703124122</v>
+        <v>0.9809780038461612</v>
       </c>
       <c r="E15">
-        <v>0.967002473493154</v>
+        <v>0.9679798920024976</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9458182784858243</v>
+        <v>0.9473988105743419</v>
       </c>
       <c r="H15">
-        <v>0.980363721518568</v>
+        <v>0.9961654791347401</v>
       </c>
       <c r="I15">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J15">
         <v>0.9999999999999999</v>
       </c>
       <c r="L15">
-        <v>0.9742404544516418</v>
+        <v>0.9751098787530333</v>
       </c>
       <c r="M15">
-        <v>0.9592647976845325</v>
+        <v>0.9608013709834554</v>
       </c>
       <c r="N15">
-        <v>0.9540662897119947</v>
+        <v>0.9550654804311639</v>
       </c>
       <c r="O15">
-        <v>0.9373965007352465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.938993166861444</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1040,43 +1085,46 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.9823374137063791</v>
+        <v>0.9832782785483929</v>
       </c>
       <c r="D16">
-        <v>0.979461474895316</v>
+        <v>0.9810596648516152</v>
       </c>
       <c r="E16">
-        <v>0.966941949677253</v>
+        <v>0.9679815210949292</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G16">
-        <v>0.9458018467489353</v>
+        <v>0.9474827755059491</v>
       </c>
       <c r="H16">
-        <v>0.9803499135880829</v>
+        <v>0.9961395036940087</v>
       </c>
       <c r="I16">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0.9999999999999999</v>
       </c>
       <c r="L16">
-        <v>0.9742723345537855</v>
+        <v>0.9752219720568467</v>
       </c>
       <c r="M16">
-        <v>0.9592505526722926</v>
+        <v>0.9608847296374344</v>
       </c>
       <c r="N16">
-        <v>0.9540036222581363</v>
+        <v>0.9550663550346251</v>
       </c>
       <c r="O16">
-        <v>0.9373797552456503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.939077841995692</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1084,43 +1132,46 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.9823555207486688</v>
+        <v>0.9834087893092016</v>
       </c>
       <c r="D17">
-        <v>0.9794335327439438</v>
+        <v>0.9811502290994233</v>
       </c>
       <c r="E17">
-        <v>0.9668510594601664</v>
+        <v>0.9679678232016067</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G17">
-        <v>0.945760194684361</v>
+        <v>0.9475658048245996</v>
       </c>
       <c r="H17">
-        <v>0.9803219460912642</v>
+        <v>0.9960510950851519</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>0.9999999999999998</v>
       </c>
-      <c r="J17">
-        <v>0.9999999999999999</v>
-      </c>
       <c r="L17">
-        <v>0.9742897575009037</v>
+        <v>0.9753528470532751</v>
       </c>
       <c r="M17">
-        <v>0.9592210966808317</v>
+        <v>0.9609764492702434</v>
       </c>
       <c r="N17">
-        <v>0.9539056389477143</v>
+        <v>0.9550473044127055</v>
       </c>
       <c r="O17">
-        <v>0.937336747073798</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.939160790969591</v>
+      </c>
+      <c r="P17">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1128,43 +1179,46 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.9827867998449417</v>
+        <v>0.983665184345945</v>
       </c>
       <c r="D18">
-        <v>0.9797765586449896</v>
+        <v>0.9814493389399533</v>
       </c>
       <c r="E18">
-        <v>0.9674405499474078</v>
+        <v>0.9685277812169448</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G18">
-        <v>0.9467684789817361</v>
+        <v>0.948525329143601</v>
       </c>
       <c r="H18">
-        <v>0.9806652831403141</v>
+        <v>0.9960495590179069</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L18">
-        <v>0.9747700908107946</v>
+        <v>0.9756565685518499</v>
       </c>
       <c r="M18">
-        <v>0.9596184939631849</v>
+        <v>0.9613287292434546</v>
       </c>
       <c r="N18">
-        <v>0.9547745343684303</v>
+        <v>0.9558851403903297</v>
       </c>
       <c r="O18">
-        <v>0.9384043402627187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.9401788740430725</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1172,43 +1226,46 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.9830032890252697</v>
+        <v>0.9835820217739385</v>
       </c>
       <c r="D19">
-        <v>0.9799577675828783</v>
+        <v>0.9814540074552334</v>
       </c>
       <c r="E19">
-        <v>0.9677475123646305</v>
+        <v>0.9687195282060589</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G19">
-        <v>0.9473556670944514</v>
+        <v>0.9489257335083583</v>
       </c>
       <c r="H19">
-        <v>0.98084665644713</v>
+        <v>0.9961939631274643</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="L19">
-        <v>0.975016156709174</v>
+        <v>0.975600184682225</v>
       </c>
       <c r="M19">
-        <v>0.9598323277670746</v>
+        <v>0.9613619621062369</v>
       </c>
       <c r="N19">
-        <v>0.9552502288399704</v>
+        <v>0.9562426797386065</v>
       </c>
       <c r="O19">
-        <v>0.9390274224138258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9406131598971917</v>
+      </c>
+      <c r="P19">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1216,43 +1273,46 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9828363654067928</v>
+        <v>0.9830552215613996</v>
       </c>
       <c r="D20">
-        <v>0.9799168850626159</v>
+        <v>0.9810328006344478</v>
       </c>
       <c r="E20">
-        <v>0.9677252194202214</v>
+        <v>0.9684501670779485</v>
       </c>
       <c r="F20">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G20">
-        <v>0.9473098458567025</v>
+        <v>0.9484808685576825</v>
       </c>
       <c r="H20">
-        <v>0.9808057368436198</v>
+        <v>0.9962078024418874</v>
       </c>
       <c r="I20">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L20">
-        <v>0.9748475017019447</v>
+        <v>0.9750683621028078</v>
       </c>
       <c r="M20">
-        <v>0.9597903213236832</v>
+        <v>0.9609311568219083</v>
       </c>
       <c r="N20">
-        <v>0.9552262777431489</v>
+        <v>0.9559664761625316</v>
       </c>
       <c r="O20">
-        <v>0.9389809226738215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9401636414071408</v>
+      </c>
+      <c r="P20">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1260,43 +1320,46 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.9817879768660259</v>
+        <v>0.9818741331065031</v>
       </c>
       <c r="D21">
-        <v>0.9792444082730241</v>
+        <v>0.9797734506192125</v>
       </c>
       <c r="E21">
-        <v>0.9666764365630872</v>
+        <v>0.9670206311797118</v>
       </c>
       <c r="F21">
         <v>0.9999999999999999</v>
       </c>
       <c r="G21">
-        <v>0.9455600584940287</v>
+        <v>0.9461165702683563</v>
       </c>
       <c r="H21">
-        <v>0.980132650071486</v>
+        <v>0.9953990905620308</v>
       </c>
       <c r="I21">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L21">
-        <v>0.9737168284953315</v>
+        <v>0.9738037901655944</v>
       </c>
       <c r="M21">
-        <v>0.9590276185139186</v>
+        <v>0.9595685956181891</v>
       </c>
       <c r="N21">
-        <v>0.9537266232386542</v>
+        <v>0.9540785079676816</v>
       </c>
       <c r="O21">
-        <v>0.9371344723387238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9376966777803785</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1304,43 +1367,46 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.9808279762086934</v>
+        <v>0.98213388724582</v>
       </c>
       <c r="D22">
-        <v>0.9785705444238441</v>
+        <v>0.9796862666831813</v>
       </c>
       <c r="E22">
-        <v>0.9655805507542865</v>
+        <v>0.966307550759591</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9438134485673872</v>
+        <v>0.9449898716639418</v>
       </c>
       <c r="H22">
-        <v>0.9794581749816066</v>
+        <v>0.9955072179126031</v>
       </c>
       <c r="I22">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L22">
-        <v>0.9726754884541766</v>
+        <v>0.9739938358543273</v>
       </c>
       <c r="M22">
-        <v>0.9582637016743164</v>
+        <v>0.9594048152876953</v>
       </c>
       <c r="N22">
-        <v>0.9521744115393942</v>
+        <v>0.9529186036312749</v>
       </c>
       <c r="O22">
-        <v>0.9352909368162606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9364796670398723</v>
+      </c>
+      <c r="P22">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1348,43 +1414,46 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.9800518008275102</v>
+        <v>0.982044188358694</v>
       </c>
       <c r="D23">
-        <v>0.9780215174746277</v>
+        <v>0.9794302535444424</v>
       </c>
       <c r="E23">
-        <v>0.9646824591353366</v>
+        <v>0.9656015414116634</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9424238660135128</v>
+        <v>0.9439120461175273</v>
       </c>
       <c r="H23">
-        <v>0.9789086500273156</v>
+        <v>0.9954515704981711</v>
       </c>
       <c r="I23">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0.9999999999999999</v>
       </c>
       <c r="L23">
-        <v>0.9718353181777779</v>
+        <v>0.9738469614698305</v>
       </c>
       <c r="M23">
-        <v>0.9576436476299582</v>
+        <v>0.9590846719807469</v>
       </c>
       <c r="N23">
-        <v>0.9509141089728387</v>
+        <v>0.9518558901886993</v>
       </c>
       <c r="O23">
-        <v>0.9338248413287749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9353288668404968</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1392,43 +1461,46 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.97976407995092</v>
+        <v>0.9820480482706757</v>
       </c>
       <c r="D24">
-        <v>0.9778043429007098</v>
+        <v>0.9793822146616681</v>
       </c>
       <c r="E24">
-        <v>0.964309909663876</v>
+        <v>0.9653398654516296</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G24">
-        <v>0.9418894930470122</v>
+        <v>0.9435575340208123</v>
       </c>
       <c r="H24">
-        <v>0.9786912784611733</v>
+        <v>0.9954865694718933</v>
       </c>
       <c r="I24">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0.9999999999999998</v>
       </c>
       <c r="L24">
-        <v>0.9715235152983457</v>
+        <v>0.973829678597201</v>
       </c>
       <c r="M24">
-        <v>0.9573994685050894</v>
+        <v>0.9590136004020677</v>
       </c>
       <c r="N24">
-        <v>0.9504033447476451</v>
+        <v>0.9514591509275444</v>
       </c>
       <c r="O24">
-        <v>0.9332614349251654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.934947353335974</v>
+      </c>
+      <c r="P24">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1436,22 +1508,22 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.9813346941439727</v>
+        <v>0.9828249580322982</v>
       </c>
       <c r="D25">
-        <v>0.9788033680055725</v>
+        <v>0.9803715863328519</v>
       </c>
       <c r="E25">
-        <v>0.9658069236334917</v>
+        <v>0.9668283332994052</v>
       </c>
       <c r="F25">
         <v>0.9999999999999999</v>
       </c>
       <c r="G25">
-        <v>0.9445172624681694</v>
+        <v>0.9461689937222378</v>
       </c>
       <c r="H25">
-        <v>0.9796912097502821</v>
+        <v>0.9959897332472838</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1460,16 +1532,19 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9732189799086438</v>
+        <v>0.9747233050037233</v>
       </c>
       <c r="M25">
-        <v>0.9585348889415</v>
+        <v>0.960138634137168</v>
       </c>
       <c r="N25">
-        <v>0.9525974055419647</v>
+        <v>0.9536423781897327</v>
       </c>
       <c r="O25">
-        <v>0.9360369856595493</v>
+        <v>0.9377058137847768</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -427,43 +427,43 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9842856185156087</v>
+        <v>0.9871859822716792</v>
       </c>
       <c r="D2">
-        <v>0.9823922745152024</v>
+        <v>0.9874502919246201</v>
       </c>
       <c r="E2">
-        <v>0.9706561299571602</v>
+        <v>0.9903252381531099</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9525433943444004</v>
+        <v>0.9578186907385615</v>
       </c>
       <c r="H2">
-        <v>0.9964110046293333</v>
+        <v>0.9883459770220084</v>
       </c>
       <c r="I2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9764931831308745</v>
+        <v>0.9794187507356218</v>
       </c>
       <c r="M2">
-        <v>0.962509957802002</v>
+        <v>0.9676775860686004</v>
       </c>
       <c r="N2">
-        <v>0.9592712839898717</v>
+        <v>0.979282187514004</v>
       </c>
       <c r="O2">
-        <v>0.9444634420841307</v>
-      </c>
-      <c r="P2">
-        <v>0.9999999999999999</v>
+        <v>0.9497880586828323</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,43 +474,43 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.984207925312686</v>
+        <v>0.9874829356301001</v>
       </c>
       <c r="D3">
-        <v>0.9826695052575066</v>
+        <v>0.9877175935325307</v>
       </c>
       <c r="E3">
-        <v>0.9714549742903393</v>
+        <v>0.9906175429135822</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9540939086721696</v>
+        <v>0.9593452836401829</v>
       </c>
       <c r="H3">
-        <v>0.9964660551161343</v>
+        <v>0.9886135210907994</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="K3">
         <v>0.9999999999999999</v>
       </c>
       <c r="L3">
-        <v>0.9765020821420527</v>
+        <v>0.9798049257457899</v>
       </c>
       <c r="M3">
-        <v>0.9628831619525003</v>
+        <v>0.9680395646232356</v>
       </c>
       <c r="N3">
-        <v>0.9605723663724293</v>
+        <v>0.9800428104458347</v>
       </c>
       <c r="O3">
-        <v>0.9461218515664338</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
+        <v>0.9514210311998569</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -521,43 +521,43 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9840121366728384</v>
+        <v>0.987612562151765</v>
       </c>
       <c r="D4">
-        <v>0.9828558995786786</v>
+        <v>0.9879054212425065</v>
       </c>
       <c r="E4">
-        <v>0.9721161768969678</v>
+        <v>0.9908621861376417</v>
       </c>
       <c r="F4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9552678632955404</v>
+        <v>0.9605104597917619</v>
       </c>
       <c r="H4">
-        <v>0.9965204205714459</v>
+        <v>0.9888015191733804</v>
       </c>
       <c r="I4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4">
-        <v>0.9763722157781995</v>
+        <v>0.9800027240795016</v>
       </c>
       <c r="M4">
-        <v>0.9631431423144822</v>
+        <v>0.9683001917247386</v>
       </c>
       <c r="N4">
-        <v>0.961615397622728</v>
+        <v>0.980644130916138</v>
       </c>
       <c r="O4">
-        <v>0.9473785373123393</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
+        <v>0.9526678863526359</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -568,43 +568,43 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9839962495659318</v>
+        <v>0.9876690031617311</v>
       </c>
       <c r="D5">
-        <v>0.9830238564297094</v>
+        <v>0.9880151598803921</v>
       </c>
       <c r="E5">
-        <v>0.9725905968416161</v>
+        <v>0.9910213434719125</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G5">
-        <v>0.9559525401387871</v>
+        <v>0.9611294774346921</v>
       </c>
       <c r="H5">
-        <v>0.9965537702569518</v>
+        <v>0.9889113573517327</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L5">
-        <v>0.976391291983343</v>
+        <v>0.9800944599564413</v>
       </c>
       <c r="M5">
-        <v>0.9633507892848107</v>
+        <v>0.9684479564812325</v>
       </c>
       <c r="N5">
-        <v>0.9622872106762933</v>
+        <v>0.9809866505076357</v>
       </c>
       <c r="O5">
-        <v>0.9481066484138572</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
+        <v>0.9533292578185203</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -615,43 +615,43 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.9839932047502864</v>
+        <v>0.9877005470907948</v>
       </c>
       <c r="D6">
-        <v>0.9831094596715885</v>
+        <v>0.9880716111546285</v>
       </c>
       <c r="E6">
-        <v>0.9728367449467312</v>
+        <v>0.9911038219290794</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G6">
-        <v>0.9562618425949592</v>
+        <v>0.9614063181997091</v>
       </c>
       <c r="H6">
-        <v>0.9965798310357611</v>
+        <v>0.9889678598311439</v>
       </c>
       <c r="I6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L6">
-        <v>0.97640336496034</v>
+        <v>0.9801412896655554</v>
       </c>
       <c r="M6">
-        <v>0.963453785900794</v>
+        <v>0.9685209994043308</v>
       </c>
       <c r="N6">
-        <v>0.9626184784195158</v>
+        <v>0.9811479221278369</v>
       </c>
       <c r="O6">
-        <v>0.9484347700789146</v>
-      </c>
-      <c r="P6">
-        <v>0.9999999999999999</v>
+        <v>0.9536244198159523</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -662,43 +662,43 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9839932047502864</v>
+        <v>0.9877005470907948</v>
       </c>
       <c r="D7">
-        <v>0.9831094596715885</v>
+        <v>0.9880716111546285</v>
       </c>
       <c r="E7">
-        <v>0.9728367449467312</v>
+        <v>0.9911038219290794</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G7">
-        <v>0.9562618425949592</v>
+        <v>0.9614063181997091</v>
       </c>
       <c r="H7">
-        <v>0.9965798310357611</v>
+        <v>0.9889678598311439</v>
       </c>
       <c r="I7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L7">
-        <v>0.97640336496034</v>
+        <v>0.9801412896655554</v>
       </c>
       <c r="M7">
-        <v>0.963453785900794</v>
+        <v>0.9685209994043308</v>
       </c>
       <c r="N7">
-        <v>0.9626184784195158</v>
+        <v>0.9811479221278369</v>
       </c>
       <c r="O7">
-        <v>0.9484347700789146</v>
-      </c>
-      <c r="P7">
-        <v>0.9999999999999999</v>
+        <v>0.9536244198159523</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -709,43 +709,43 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9836886665570198</v>
+        <v>0.9877226446823932</v>
       </c>
       <c r="D8">
-        <v>0.9829626398822071</v>
+        <v>0.9880793422356352</v>
       </c>
       <c r="E8">
-        <v>0.9727299841280712</v>
+        <v>0.991103816239272</v>
       </c>
       <c r="F8">
         <v>0.9999999999999998</v>
       </c>
       <c r="G8">
-        <v>0.9560551320797073</v>
+        <v>0.9613604293927137</v>
       </c>
       <c r="H8">
-        <v>0.9966333738066553</v>
+        <v>0.9889755979247711</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L8">
-        <v>0.9760925631993499</v>
+        <v>0.9801598603874903</v>
       </c>
       <c r="M8">
-        <v>0.9632999963289871</v>
+        <v>0.968525092245096</v>
       </c>
       <c r="N8">
-        <v>0.962490066709894</v>
+        <v>0.9811287847116728</v>
       </c>
       <c r="O8">
-        <v>0.9482222640480371</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
+        <v>0.9535742073813775</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -756,22 +756,22 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.9840436751323023</v>
+        <v>0.9876842839061208</v>
       </c>
       <c r="D9">
-        <v>0.9829093376236239</v>
+        <v>0.9879591941618984</v>
       </c>
       <c r="E9">
-        <v>0.9723195153540241</v>
+        <v>0.9909336284202676</v>
       </c>
       <c r="F9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9552060439611707</v>
+        <v>0.9604501644183048</v>
       </c>
       <c r="H9">
-        <v>0.9966077272869069</v>
+        <v>0.9888553408684959</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -779,20 +779,20 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="K9">
+        <v>0.9999999999999999</v>
+      </c>
       <c r="L9">
-        <v>0.9763959411307828</v>
+        <v>0.9800670270976762</v>
       </c>
       <c r="M9">
-        <v>0.9631894133681357</v>
+        <v>0.9683468834107126</v>
       </c>
       <c r="N9">
-        <v>0.9617778876945021</v>
+        <v>0.9806747325086459</v>
       </c>
       <c r="O9">
-        <v>0.9473075616300297</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
+        <v>0.9525985545526771</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -803,43 +803,43 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9834492971805427</v>
+        <v>0.9872473169569532</v>
       </c>
       <c r="D10">
-        <v>0.9819887632370653</v>
+        <v>0.987531408841455</v>
       </c>
       <c r="E10">
-        <v>0.970598077185709</v>
+        <v>0.9904265561906388</v>
       </c>
       <c r="F10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G10">
-        <v>0.9522168085000968</v>
+        <v>0.9579965491189455</v>
       </c>
       <c r="H10">
-        <v>0.9965048235386001</v>
+        <v>0.9884271675174467</v>
       </c>
       <c r="I10">
         <v>0.9999999999999998</v>
       </c>
       <c r="J10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9756561067652387</v>
+        <v>0.9794871067800295</v>
       </c>
       <c r="M10">
-        <v>0.9621043925753949</v>
+        <v>0.9677671114211555</v>
       </c>
       <c r="N10">
-        <v>0.9592491024291342</v>
+        <v>0.9794201925226611</v>
       </c>
       <c r="O10">
-        <v>0.9441408033877867</v>
-      </c>
-      <c r="P10">
-        <v>0.9999999999999999</v>
+        <v>0.9499744977035127</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -850,43 +850,43 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9825351536816112</v>
+        <v>0.9863565743795653</v>
       </c>
       <c r="D11">
-        <v>0.9807839917729119</v>
+        <v>0.9869572588421928</v>
       </c>
       <c r="E11">
-        <v>0.9686742062717366</v>
+        <v>0.9898829841918301</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G11">
-        <v>0.9489220611198881</v>
+        <v>0.9553873955408353</v>
       </c>
       <c r="H11">
-        <v>0.9960043052070354</v>
+        <v>0.9878524967247814</v>
       </c>
       <c r="I11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9999999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9745924394234534</v>
+        <v>0.9784483099984671</v>
       </c>
       <c r="M11">
-        <v>0.9607272838183076</v>
+        <v>0.9670366103276375</v>
       </c>
       <c r="N11">
-        <v>0.9564799648706356</v>
+        <v>0.9781024183410557</v>
       </c>
       <c r="O11">
-        <v>0.9406621091854512</v>
-      </c>
-      <c r="P11">
-        <v>0.9999999999999999</v>
+        <v>0.9471905244239121</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -897,43 +897,43 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9826288801907875</v>
+        <v>0.9857941159576051</v>
       </c>
       <c r="D12">
-        <v>0.9805704099930987</v>
+        <v>0.9866346136107642</v>
       </c>
       <c r="E12">
-        <v>0.9680087060228898</v>
+        <v>0.9896167520415375</v>
       </c>
       <c r="F12">
         <v>0.9999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.9476982157970335</v>
+        <v>0.9540630979975084</v>
       </c>
       <c r="H12">
-        <v>0.9959438848444845</v>
+        <v>0.9875295588320128</v>
       </c>
       <c r="I12">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="L12">
-        <v>0.974617397938373</v>
+        <v>0.977811680080393</v>
       </c>
       <c r="M12">
-        <v>0.9604370440786859</v>
+        <v>0.9666359961696845</v>
       </c>
       <c r="N12">
-        <v>0.9553942045327303</v>
+        <v>0.9774480519497064</v>
       </c>
       <c r="O12">
-        <v>0.9393506978406975</v>
-      </c>
-      <c r="P12">
-        <v>0.9999999999999999</v>
+        <v>0.9457790134428435</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -944,43 +944,43 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9826248599258803</v>
+        <v>0.9854075965049369</v>
       </c>
       <c r="D13">
-        <v>0.9804497460822352</v>
+        <v>0.9864093705548155</v>
       </c>
       <c r="E13">
-        <v>0.9675154542125629</v>
+        <v>0.9894264628472094</v>
       </c>
       <c r="F13">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9467817762376443</v>
+        <v>0.9530477228890497</v>
       </c>
       <c r="H13">
-        <v>0.9959659448579774</v>
+        <v>0.9873041114651737</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9745583116245271</v>
+        <v>0.9773669445289197</v>
       </c>
       <c r="M13">
-        <v>0.960256801504073</v>
+        <v>0.966349696101143</v>
       </c>
       <c r="N13">
-        <v>0.9545652967175593</v>
+        <v>0.976948203504737</v>
       </c>
       <c r="O13">
-        <v>0.9383651790155287</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
+        <v>0.9446946203118166</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -991,22 +991,22 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9829590583684567</v>
+        <v>0.9854374977619492</v>
       </c>
       <c r="D14">
-        <v>0.9807462564848412</v>
+        <v>0.9864062379680562</v>
       </c>
       <c r="E14">
-        <v>0.9676650863004045</v>
+        <v>0.9894176027685641</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G14">
-        <v>0.9469542444962626</v>
+        <v>0.9529068167109114</v>
       </c>
       <c r="H14">
-        <v>0.9961187903082729</v>
+        <v>0.9873009760369437</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1014,20 +1014,20 @@
       <c r="J14">
         <v>0.9999999999999998</v>
       </c>
+      <c r="K14">
+        <v>0.9999999999999998</v>
+      </c>
       <c r="L14">
-        <v>0.9748859105067971</v>
+        <v>0.9773874591348283</v>
       </c>
       <c r="M14">
-        <v>0.9605499387122443</v>
+        <v>0.9663365799007686</v>
       </c>
       <c r="N14">
-        <v>0.9546605616746113</v>
+        <v>0.9768848675864545</v>
       </c>
       <c r="O14">
-        <v>0.9385288287052747</v>
-      </c>
-      <c r="P14">
-        <v>0.9999999999999999</v>
+        <v>0.9445418683651919</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1038,43 +1038,43 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9831670875473459</v>
+        <v>0.9855997545177706</v>
       </c>
       <c r="D15">
-        <v>0.9809780038461612</v>
+        <v>0.986497611477746</v>
       </c>
       <c r="E15">
-        <v>0.9679798920024976</v>
+        <v>0.9895006323045049</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9473988105743419</v>
+        <v>0.9532010785953952</v>
       </c>
       <c r="H15">
-        <v>0.9961654791347401</v>
+        <v>0.9873924324286698</v>
       </c>
       <c r="I15">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J15">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9751098787530333</v>
+        <v>0.9775651402527739</v>
       </c>
       <c r="M15">
-        <v>0.9608013709834554</v>
+        <v>0.9664442631348359</v>
       </c>
       <c r="N15">
-        <v>0.9550654804311639</v>
+        <v>0.9770478022992192</v>
       </c>
       <c r="O15">
-        <v>0.938993166861444</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
+        <v>0.9448541083661992</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1085,46 +1085,46 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.9832782785483929</v>
+        <v>0.9856308803763066</v>
       </c>
       <c r="D16">
-        <v>0.9810596648516152</v>
+        <v>0.9864956296487525</v>
       </c>
       <c r="E16">
-        <v>0.9679815210949292</v>
+        <v>0.9894820976166857</v>
       </c>
       <c r="F16">
         <v>0.9999999999999999</v>
       </c>
       <c r="G16">
-        <v>0.9474827755059491</v>
+        <v>0.9531971065092424</v>
       </c>
       <c r="H16">
-        <v>0.9961395036940087</v>
+        <v>0.9873904488020215</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J16">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L16">
-        <v>0.9752219720568467</v>
+        <v>0.9775964216930773</v>
       </c>
       <c r="M16">
-        <v>0.9608847296374344</v>
+        <v>0.9664421012156929</v>
       </c>
       <c r="N16">
-        <v>0.9550663550346251</v>
+        <v>0.9770281397352297</v>
       </c>
       <c r="O16">
-        <v>0.939077841995692</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>0.9448499533102528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1132,46 +1132,46 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.9834087893092016</v>
+        <v>0.9856577257262411</v>
       </c>
       <c r="D17">
-        <v>0.9811502290994233</v>
+        <v>0.9864857332288416</v>
       </c>
       <c r="E17">
-        <v>0.9679678232016067</v>
+        <v>0.9894529188115903</v>
       </c>
       <c r="F17">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9475658048245996</v>
+        <v>0.9531746449766642</v>
       </c>
       <c r="H17">
-        <v>0.9960510950851519</v>
+        <v>0.9873805434053792</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J17">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.9999999999999999</v>
       </c>
       <c r="L17">
-        <v>0.9753528470532751</v>
+        <v>0.9776226689265879</v>
       </c>
       <c r="M17">
-        <v>0.9609764492702434</v>
+        <v>0.9664311162989496</v>
       </c>
       <c r="N17">
-        <v>0.9550473044127055</v>
+        <v>0.9769936042362528</v>
       </c>
       <c r="O17">
-        <v>0.939160790969591</v>
-      </c>
-      <c r="P17">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>0.9448263527766105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1179,46 +1179,46 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.983665184345945</v>
+        <v>0.9860109207558913</v>
       </c>
       <c r="D18">
-        <v>0.9814493389399533</v>
+        <v>0.9866939485844252</v>
       </c>
       <c r="E18">
-        <v>0.9685277812169448</v>
+        <v>0.9896321843217388</v>
       </c>
       <c r="F18">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G18">
-        <v>0.948525329143601</v>
+        <v>0.9540307368509167</v>
       </c>
       <c r="H18">
-        <v>0.9960495590179069</v>
+        <v>0.987588947626562</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.9999999999999997</v>
       </c>
       <c r="L18">
-        <v>0.9756565685518499</v>
+        <v>0.9780238337862083</v>
       </c>
       <c r="M18">
-        <v>0.9613287292434546</v>
+        <v>0.9666898331658843</v>
       </c>
       <c r="N18">
-        <v>0.9558851403903297</v>
+        <v>0.977426801970528</v>
       </c>
       <c r="O18">
-        <v>0.9401788740430725</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>0.9457391887113388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1226,46 +1226,46 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.9835820217739385</v>
+        <v>0.9861868211203272</v>
       </c>
       <c r="D19">
-        <v>0.9814540074552334</v>
+        <v>0.9868068937220489</v>
       </c>
       <c r="E19">
-        <v>0.9687195282060589</v>
+        <v>0.9897267464064839</v>
       </c>
       <c r="F19">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9489257335083583</v>
+        <v>0.9545399964829568</v>
       </c>
       <c r="H19">
-        <v>0.9961939631274643</v>
+        <v>0.9877019952131669</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.975600184682225</v>
+        <v>0.9782287257460036</v>
       </c>
       <c r="M19">
-        <v>0.9613619621062369</v>
+        <v>0.9668333772416049</v>
       </c>
       <c r="N19">
-        <v>0.9562426797386065</v>
+        <v>0.9776757506985995</v>
       </c>
       <c r="O19">
-        <v>0.9406131598971917</v>
-      </c>
-      <c r="P19">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>0.9462829540030303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1273,46 +1273,46 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9830552215613996</v>
+        <v>0.9860805348026586</v>
       </c>
       <c r="D20">
-        <v>0.9810328006344478</v>
+        <v>0.986772045542043</v>
       </c>
       <c r="E20">
-        <v>0.9684501670779485</v>
+        <v>0.9897104079154793</v>
       </c>
       <c r="F20">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G20">
-        <v>0.9484808685576825</v>
+        <v>0.9545005884206205</v>
       </c>
       <c r="H20">
-        <v>0.9962078024418874</v>
+        <v>0.9876671154234735</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9750683621028078</v>
+        <v>0.9781212723562326</v>
       </c>
       <c r="M20">
-        <v>0.9609311568219083</v>
+        <v>0.9667975556372285</v>
       </c>
       <c r="N20">
-        <v>0.9559664761625316</v>
+        <v>0.9776579741380319</v>
       </c>
       <c r="O20">
-        <v>0.9401636414071408</v>
-      </c>
-      <c r="P20">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>0.9462429424057561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1320,46 +1320,46 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.9818741331065031</v>
+        <v>0.985283557369255</v>
       </c>
       <c r="D21">
-        <v>0.9797734506192125</v>
+        <v>0.9863600589751712</v>
       </c>
       <c r="E21">
-        <v>0.9670206311797118</v>
+        <v>0.9893874483568524</v>
       </c>
       <c r="F21">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9461165702683563</v>
+        <v>0.9530414163707163</v>
       </c>
       <c r="H21">
-        <v>0.9953990905620308</v>
+        <v>0.9872547551565469</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J21">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9738037901655944</v>
+        <v>0.9772449516489163</v>
       </c>
       <c r="M21">
-        <v>0.9595685956181891</v>
+        <v>0.9663025680481264</v>
       </c>
       <c r="N21">
-        <v>0.9540785079676816</v>
+        <v>0.9769263179863045</v>
       </c>
       <c r="O21">
-        <v>0.9376966777803785</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>0.9446916977742585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1367,46 +1367,46 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.98213388724582</v>
+        <v>0.9845731380289761</v>
       </c>
       <c r="D22">
-        <v>0.9796862666831813</v>
+        <v>0.9859564447244364</v>
       </c>
       <c r="E22">
-        <v>0.966307550759591</v>
+        <v>0.9890521756492937</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G22">
-        <v>0.9449898716639418</v>
+        <v>0.9515972186121013</v>
       </c>
       <c r="H22">
-        <v>0.9955072179126031</v>
+        <v>0.986850774800022</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="K22">
+        <v>0.9999999999999998</v>
       </c>
       <c r="L22">
-        <v>0.9739938358543273</v>
+        <v>0.9764562088439657</v>
       </c>
       <c r="M22">
-        <v>0.9594048152876953</v>
+        <v>0.9658164608931713</v>
       </c>
       <c r="N22">
-        <v>0.9529186036312749</v>
+        <v>0.9761799702862459</v>
       </c>
       <c r="O22">
-        <v>0.9364796670398723</v>
-      </c>
-      <c r="P22">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>0.9431554439876264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1414,46 +1414,46 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.982044188358694</v>
+        <v>0.9839830022426018</v>
       </c>
       <c r="D23">
-        <v>0.9794302535444424</v>
+        <v>0.9856293993180298</v>
       </c>
       <c r="E23">
-        <v>0.9656015414116634</v>
+        <v>0.9887813243630654</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9439120461175273</v>
+        <v>0.9504565495150014</v>
       </c>
       <c r="H23">
-        <v>0.9954515704981711</v>
+        <v>0.9865234327410151</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>0.9999999999999999</v>
       </c>
       <c r="L23">
-        <v>0.9738469614698305</v>
+        <v>0.9758044219129665</v>
       </c>
       <c r="M23">
-        <v>0.9590846719807469</v>
+        <v>0.9654246373190298</v>
       </c>
       <c r="N23">
-        <v>0.9518558901886993</v>
+        <v>0.9755848406081365</v>
       </c>
       <c r="O23">
-        <v>0.9353288668404968</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>0.9419423255905427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1461,46 +1461,46 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.9820480482706757</v>
+        <v>0.9837729162761213</v>
       </c>
       <c r="D24">
-        <v>0.9793822146616681</v>
+        <v>0.9855036704071142</v>
       </c>
       <c r="E24">
-        <v>0.9653398654516296</v>
+        <v>0.9886685102662076</v>
       </c>
       <c r="F24">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9435575340208123</v>
+        <v>0.9500244963744096</v>
       </c>
       <c r="H24">
-        <v>0.9954865694718933</v>
+        <v>0.9863975897853591</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J24">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K24">
         <v>0.9999999999999998</v>
       </c>
       <c r="L24">
-        <v>0.973829678597201</v>
+        <v>0.9755712247422376</v>
       </c>
       <c r="M24">
-        <v>0.9590136004020677</v>
+        <v>0.9652744599096016</v>
       </c>
       <c r="N24">
-        <v>0.9514591509275444</v>
+        <v>0.9753491231228036</v>
       </c>
       <c r="O24">
-        <v>0.934947353335974</v>
-      </c>
-      <c r="P24">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>0.9414828910056526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1508,43 +1508,43 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.9828249580322982</v>
+        <v>0.9850217630367394</v>
       </c>
       <c r="D25">
-        <v>0.9803715863328519</v>
+        <v>0.9861190159600771</v>
       </c>
       <c r="E25">
-        <v>0.9668283332994052</v>
+        <v>0.989111086301563</v>
       </c>
       <c r="F25">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9461689937222378</v>
+        <v>0.9522190011877131</v>
       </c>
       <c r="H25">
-        <v>0.9959897332472838</v>
+        <v>0.9870134934989163</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J25">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9747233050037233</v>
+        <v>0.9769407440714236</v>
       </c>
       <c r="M25">
-        <v>0.960138634137168</v>
+        <v>0.9660151609987248</v>
       </c>
       <c r="N25">
-        <v>0.9536423781897327</v>
+        <v>0.9764192447764228</v>
       </c>
       <c r="O25">
-        <v>0.9377058137847768</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
+        <v>0.9438178265447387</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -427,25 +427,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9871859822716792</v>
+        <v>0.98722486234795</v>
       </c>
       <c r="D2">
-        <v>0.9874502919246201</v>
+        <v>0.987551416639799</v>
       </c>
       <c r="E2">
-        <v>0.9903252381531099</v>
+        <v>0.9903979907965059</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G2">
-        <v>0.9578186907385615</v>
+        <v>0.9579241272086482</v>
       </c>
       <c r="H2">
-        <v>0.9883459770220084</v>
+        <v>0.9884471934642353</v>
       </c>
       <c r="I2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -454,16 +454,16 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9794187507356218</v>
+        <v>0.9794579675122133</v>
       </c>
       <c r="M2">
-        <v>0.9676775860686004</v>
+        <v>0.9677808894089623</v>
       </c>
       <c r="N2">
-        <v>0.979282187514004</v>
+        <v>0.9793561654730562</v>
       </c>
       <c r="O2">
-        <v>0.9497880586828323</v>
+        <v>0.9498944744561769</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,43 +474,43 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9874829356301001</v>
+        <v>0.9876089996994484</v>
       </c>
       <c r="D3">
-        <v>0.9877175935325307</v>
+        <v>0.9878356887445026</v>
       </c>
       <c r="E3">
-        <v>0.9906175429135822</v>
+        <v>0.9906893773615444</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9593452836401829</v>
+        <v>0.9594681000581347</v>
       </c>
       <c r="H3">
-        <v>0.9886135210907994</v>
+        <v>0.9887317234232228</v>
       </c>
       <c r="I3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9798049257457899</v>
+        <v>0.9799320569826069</v>
       </c>
       <c r="M3">
-        <v>0.9680395646232356</v>
+        <v>0.9681601790050226</v>
       </c>
       <c r="N3">
-        <v>0.9800428104458347</v>
+        <v>0.980115765231552</v>
       </c>
       <c r="O3">
-        <v>0.9514210311998569</v>
+        <v>0.9515449584529575</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -521,22 +521,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.987612562151765</v>
+        <v>0.9877794537499327</v>
       </c>
       <c r="D4">
-        <v>0.9879054212425065</v>
+        <v>0.9880275272105017</v>
       </c>
       <c r="E4">
-        <v>0.9908621861376417</v>
+        <v>0.9909305161866604</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9605104597917619</v>
+        <v>0.9606372014512415</v>
       </c>
       <c r="H4">
-        <v>0.9888015191733804</v>
+        <v>0.988923735899858</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -548,16 +548,16 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9800027240795016</v>
+        <v>0.9801710041069849</v>
       </c>
       <c r="M4">
-        <v>0.9683001917247386</v>
+        <v>0.9684248828301363</v>
       </c>
       <c r="N4">
-        <v>0.980644130916138</v>
+        <v>0.9807134626039185</v>
       </c>
       <c r="O4">
-        <v>0.9526678863526359</v>
+        <v>0.9527957510918386</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -568,43 +568,43 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9876690031617311</v>
+        <v>0.9878550553116743</v>
       </c>
       <c r="D5">
-        <v>0.9880151598803921</v>
+        <v>0.988141491937284</v>
       </c>
       <c r="E5">
-        <v>0.9910213434719125</v>
+        <v>0.9910898795954284</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9611294774346921</v>
+        <v>0.9612604752976902</v>
       </c>
       <c r="H5">
-        <v>0.9889113573517327</v>
+        <v>0.989037804000459</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9800944599564413</v>
+        <v>0.9802820460563326</v>
       </c>
       <c r="M5">
-        <v>0.9684479564812325</v>
+        <v>0.9685769526744732</v>
       </c>
       <c r="N5">
-        <v>0.9809866505076357</v>
+        <v>0.9810561585535791</v>
       </c>
       <c r="O5">
-        <v>0.9533292578185203</v>
+        <v>0.9534614041628419</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -615,43 +615,43 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.9877005470907948</v>
+        <v>0.987894475847177</v>
       </c>
       <c r="D6">
-        <v>0.9880716111546285</v>
+        <v>0.9882001301247089</v>
       </c>
       <c r="E6">
-        <v>0.9911038219290794</v>
+        <v>0.991172798669385</v>
       </c>
       <c r="F6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9614063181997091</v>
+        <v>0.9615395268437917</v>
       </c>
       <c r="H6">
-        <v>0.9889678598311439</v>
+        <v>0.9890964953767393</v>
       </c>
       <c r="I6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K6">
         <v>0.9999999999999999</v>
       </c>
       <c r="L6">
-        <v>0.9801412896655554</v>
+        <v>0.980336811083301</v>
       </c>
       <c r="M6">
-        <v>0.9685209994043308</v>
+        <v>0.9686522240057741</v>
       </c>
       <c r="N6">
-        <v>0.9811479221278369</v>
+        <v>0.981217862943727</v>
       </c>
       <c r="O6">
-        <v>0.9536244198159523</v>
+        <v>0.9537587909406448</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -662,43 +662,43 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9877005470907948</v>
+        <v>0.987894475847177</v>
       </c>
       <c r="D7">
-        <v>0.9880716111546285</v>
+        <v>0.9882001301247089</v>
       </c>
       <c r="E7">
-        <v>0.9911038219290794</v>
+        <v>0.991172798669385</v>
       </c>
       <c r="F7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9614063181997091</v>
+        <v>0.9615395268437917</v>
       </c>
       <c r="H7">
-        <v>0.9889678598311439</v>
+        <v>0.9890964953767393</v>
       </c>
       <c r="I7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K7">
         <v>0.9999999999999999</v>
       </c>
       <c r="L7">
-        <v>0.9801412896655554</v>
+        <v>0.980336811083301</v>
       </c>
       <c r="M7">
-        <v>0.9685209994043308</v>
+        <v>0.9686522240057741</v>
       </c>
       <c r="N7">
-        <v>0.9811479221278369</v>
+        <v>0.981217862943727</v>
       </c>
       <c r="O7">
-        <v>0.9536244198159523</v>
+        <v>0.9537587909406448</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -709,22 +709,22 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9877226446823932</v>
+        <v>0.9878998000089524</v>
       </c>
       <c r="D8">
-        <v>0.9880793422356352</v>
+        <v>0.9881981665261929</v>
       </c>
       <c r="E8">
-        <v>0.991103816239272</v>
+        <v>0.9911679194277765</v>
       </c>
       <c r="F8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9613604293927137</v>
+        <v>0.9614836023582554</v>
       </c>
       <c r="H8">
-        <v>0.9889755979247711</v>
+        <v>0.989094529997105</v>
       </c>
       <c r="I8">
         <v>0.9999999999999998</v>
@@ -733,19 +733,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="K8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L8">
-        <v>0.9801598603874903</v>
+        <v>0.9803384719497852</v>
       </c>
       <c r="M8">
-        <v>0.968525092245096</v>
+        <v>0.9686464190288386</v>
       </c>
       <c r="N8">
-        <v>0.9811287847116728</v>
+        <v>0.9811937870360463</v>
       </c>
       <c r="O8">
-        <v>0.9535742073813775</v>
+        <v>0.9536984564298719</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -756,43 +756,43 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.9876842839061208</v>
+        <v>0.987840371662517</v>
       </c>
       <c r="D9">
-        <v>0.9879591941618984</v>
+        <v>0.988081247363093</v>
       </c>
       <c r="E9">
-        <v>0.9909336284202676</v>
+        <v>0.9910037015453369</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9604501644183048</v>
+        <v>0.9605768794513942</v>
       </c>
       <c r="H9">
-        <v>0.9888553408684959</v>
+        <v>0.98897750478031</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9800670270976762</v>
+        <v>0.9802244158546634</v>
       </c>
       <c r="M9">
-        <v>0.9683468834107126</v>
+        <v>0.9684715225127976</v>
       </c>
       <c r="N9">
-        <v>0.9806747325086459</v>
+        <v>0.9807458402642011</v>
       </c>
       <c r="O9">
-        <v>0.9525985545526771</v>
+        <v>0.9527263949707442</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -803,43 +803,43 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9872473169569532</v>
+        <v>0.9872694258494407</v>
       </c>
       <c r="D10">
-        <v>0.987531408841455</v>
+        <v>0.9876107982487885</v>
       </c>
       <c r="E10">
-        <v>0.9904265561906388</v>
+        <v>0.9904849578562158</v>
       </c>
       <c r="F10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9579965491189455</v>
+        <v>0.9580793070691056</v>
       </c>
       <c r="H10">
-        <v>0.9884271675174467</v>
+        <v>0.9885066289364144</v>
       </c>
       <c r="I10">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J10">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9794871067800295</v>
+        <v>0.979509406797554</v>
       </c>
       <c r="M10">
-        <v>0.9677671114211555</v>
+        <v>0.96784820972518</v>
       </c>
       <c r="N10">
-        <v>0.9794201925226611</v>
+        <v>0.9794795720535342</v>
       </c>
       <c r="O10">
-        <v>0.9499744977035127</v>
+        <v>0.9500580226943661</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -850,25 +850,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9863565743795653</v>
+        <v>0.9862307340758462</v>
       </c>
       <c r="D11">
-        <v>0.9869572588421928</v>
+        <v>0.9869852178096228</v>
       </c>
       <c r="E11">
-        <v>0.9898829841918301</v>
+        <v>0.9899250861764303</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9553873955408353</v>
+        <v>0.9554166650214272</v>
       </c>
       <c r="H11">
-        <v>0.9878524967247814</v>
+        <v>0.9878804810529113</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -877,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9784483099984671</v>
+        <v>0.9783213402664583</v>
       </c>
       <c r="M11">
-        <v>0.9670366103276375</v>
+        <v>0.9670651811333939</v>
       </c>
       <c r="N11">
-        <v>0.9781024183410557</v>
+        <v>0.9781453134004396</v>
       </c>
       <c r="O11">
-        <v>0.9471905244239121</v>
+        <v>0.9472200771703594</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -897,43 +897,43 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9857941159576051</v>
+        <v>0.9855834402954584</v>
       </c>
       <c r="D12">
-        <v>0.9866346136107642</v>
+        <v>0.9866384438182799</v>
       </c>
       <c r="E12">
-        <v>0.9896167520415375</v>
+        <v>0.9896536323065034</v>
       </c>
       <c r="F12">
         <v>0.9999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.9540630979975084</v>
+        <v>0.9540671163609479</v>
       </c>
       <c r="H12">
-        <v>0.9875295588320128</v>
+        <v>0.9875333925137895</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L12">
-        <v>0.977811680080393</v>
+        <v>0.9775990780185164</v>
       </c>
       <c r="M12">
-        <v>0.9666359961696845</v>
+        <v>0.9666399108902591</v>
       </c>
       <c r="N12">
-        <v>0.9774480519497064</v>
+        <v>0.9774856661610528</v>
       </c>
       <c r="O12">
-        <v>0.9457790134428435</v>
+        <v>0.9457830715324316</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -944,43 +944,43 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9854075965049369</v>
+        <v>0.9852337690677399</v>
       </c>
       <c r="D13">
-        <v>0.9864093705548155</v>
+        <v>0.9864036000596396</v>
       </c>
       <c r="E13">
-        <v>0.9894264628472094</v>
+        <v>0.9894493399398639</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9530477228890497</v>
+        <v>0.9530416585201332</v>
       </c>
       <c r="H13">
-        <v>0.9873041114651737</v>
+        <v>0.9872983357357633</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L13">
-        <v>0.9773669445289197</v>
+        <v>0.977191504584944</v>
       </c>
       <c r="M13">
-        <v>0.966349696101143</v>
+        <v>0.9663437974547694</v>
       </c>
       <c r="N13">
-        <v>0.976948203504737</v>
+        <v>0.9769715554274664</v>
       </c>
       <c r="O13">
-        <v>0.9446946203118166</v>
+        <v>0.9446884949802739</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -991,22 +991,22 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9854374977619492</v>
+        <v>0.9853234093738364</v>
       </c>
       <c r="D14">
-        <v>0.9864062379680562</v>
+        <v>0.9864050792078906</v>
       </c>
       <c r="E14">
-        <v>0.9894176027685641</v>
+        <v>0.9894342666053993</v>
       </c>
       <c r="F14">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9529068167109114</v>
+        <v>0.9529055985737532</v>
       </c>
       <c r="H14">
-        <v>0.9873009760369437</v>
+        <v>0.9872998162257033</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1015,19 +1015,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="K14">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9773874591348283</v>
+        <v>0.9772723100427754</v>
       </c>
       <c r="M14">
-        <v>0.9663365799007686</v>
+        <v>0.9663353953797639</v>
       </c>
       <c r="N14">
-        <v>0.9768848675864545</v>
+        <v>0.9769018798067122</v>
       </c>
       <c r="O14">
-        <v>0.9445418683651919</v>
+        <v>0.9445406379477773</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1038,43 +1038,43 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9855997545177706</v>
+        <v>0.9855146513788434</v>
       </c>
       <c r="D15">
-        <v>0.986497611477746</v>
+        <v>0.9865001745923175</v>
       </c>
       <c r="E15">
-        <v>0.9895006323045049</v>
+        <v>0.9895155407872334</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9532010785953952</v>
+        <v>0.9532037718496198</v>
       </c>
       <c r="H15">
-        <v>0.9873924324286698</v>
+        <v>0.9873949978681615</v>
       </c>
       <c r="I15">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9775651402527739</v>
+        <v>0.9774792489376636</v>
       </c>
       <c r="M15">
-        <v>0.9664442631348359</v>
+        <v>0.9664468831325859</v>
       </c>
       <c r="N15">
-        <v>0.9770478022992192</v>
+        <v>0.9770630191626122</v>
       </c>
       <c r="O15">
-        <v>0.9448541083661992</v>
+        <v>0.9448568286540991</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1085,22 +1085,22 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.9856308803763066</v>
+        <v>0.9855526308534452</v>
       </c>
       <c r="D16">
-        <v>0.9864956296487525</v>
+        <v>0.986499829687816</v>
       </c>
       <c r="E16">
-        <v>0.9894820976166857</v>
+        <v>0.9894971583530169</v>
       </c>
       <c r="F16">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9531971065092424</v>
+        <v>0.9532015198200863</v>
       </c>
       <c r="H16">
-        <v>0.9873904488020215</v>
+        <v>0.9873946526508084</v>
       </c>
       <c r="I16">
         <v>0.9999999999999999</v>
@@ -1109,19 +1109,19 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L16">
-        <v>0.9775964216930773</v>
+        <v>0.9775174475055459</v>
       </c>
       <c r="M16">
-        <v>0.9664421012156929</v>
+        <v>0.9664463944677799</v>
       </c>
       <c r="N16">
-        <v>0.9770281397352297</v>
+        <v>0.9770435120515623</v>
       </c>
       <c r="O16">
-        <v>0.9448499533102528</v>
+        <v>0.944854410921791</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,43 +1132,43 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.9856577257262411</v>
+        <v>0.985580116482076</v>
       </c>
       <c r="D17">
-        <v>0.9864857332288416</v>
+        <v>0.986492087534528</v>
       </c>
       <c r="E17">
-        <v>0.9894529188115903</v>
+        <v>0.9894694859120562</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G17">
-        <v>0.9531746449766642</v>
+        <v>0.9531813221283109</v>
       </c>
       <c r="H17">
-        <v>0.9873805434053792</v>
+        <v>0.9873869034748565</v>
       </c>
       <c r="I17">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0.9999999999999999</v>
       </c>
       <c r="K17">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.9776226689265879</v>
+        <v>0.9775443408449426</v>
       </c>
       <c r="M17">
-        <v>0.9664311162989496</v>
+        <v>0.9664376116439523</v>
       </c>
       <c r="N17">
-        <v>0.9769936042362528</v>
+        <v>0.9770105143303741</v>
       </c>
       <c r="O17">
-        <v>0.9448263527766105</v>
+        <v>0.944833096971583</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,43 +1179,43 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.9860109207558913</v>
+        <v>0.9859533247036433</v>
       </c>
       <c r="D18">
-        <v>0.9866939485844252</v>
+        <v>0.9867084033629205</v>
       </c>
       <c r="E18">
-        <v>0.9896321843217388</v>
+        <v>0.9896518630620499</v>
       </c>
       <c r="F18">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G18">
-        <v>0.9540307368509167</v>
+        <v>0.9540459046536269</v>
       </c>
       <c r="H18">
-        <v>0.987588947626562</v>
+        <v>0.9876034155165326</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K18">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9780238337862083</v>
+        <v>0.97796571058855</v>
       </c>
       <c r="M18">
-        <v>0.9666898331658843</v>
+        <v>0.9667046070694706</v>
       </c>
       <c r="N18">
-        <v>0.977426801970528</v>
+        <v>0.9774468743232348</v>
       </c>
       <c r="O18">
-        <v>0.9457391887113388</v>
+        <v>0.945754506733145</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,43 +1226,43 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.9861868211203272</v>
+        <v>0.986139910862973</v>
       </c>
       <c r="D19">
-        <v>0.9868068937220489</v>
+        <v>0.9868243669812334</v>
       </c>
       <c r="E19">
-        <v>0.9897267464064839</v>
+        <v>0.98974717599496</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9545399964829568</v>
+        <v>0.9545583160048394</v>
       </c>
       <c r="H19">
-        <v>0.9877019952131669</v>
+        <v>0.9877194843217955</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L19">
-        <v>0.9782287257460036</v>
+        <v>0.9781813892374009</v>
       </c>
       <c r="M19">
-        <v>0.9668333772416049</v>
+        <v>0.9668512350199939</v>
       </c>
       <c r="N19">
-        <v>0.9776757506985995</v>
+        <v>0.9776965802473293</v>
       </c>
       <c r="O19">
-        <v>0.9462829540030303</v>
+        <v>0.9463014534431416</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,43 +1273,43 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9860805348026586</v>
+        <v>0.9859748185792809</v>
       </c>
       <c r="D20">
-        <v>0.986772045542043</v>
+        <v>0.9867891676006698</v>
       </c>
       <c r="E20">
-        <v>0.9897104079154793</v>
+        <v>0.9897402244830343</v>
       </c>
       <c r="F20">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9545005884206205</v>
+        <v>0.9545185399308425</v>
       </c>
       <c r="H20">
-        <v>0.9876671154234735</v>
+        <v>0.987684253012981</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J20">
         <v>0.9999999999999998</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L20">
-        <v>0.9781212723562326</v>
+        <v>0.9780145951776529</v>
       </c>
       <c r="M20">
-        <v>0.9667975556372285</v>
+        <v>0.966815054525077</v>
       </c>
       <c r="N20">
-        <v>0.9776579741380319</v>
+        <v>0.9776883745528751</v>
       </c>
       <c r="O20">
-        <v>0.9462429424057561</v>
+        <v>0.9462610702466566</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,43 +1320,43 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.985283557369255</v>
+        <v>0.9850316296575014</v>
       </c>
       <c r="D21">
-        <v>0.9863600589751712</v>
+        <v>0.9863441853124457</v>
       </c>
       <c r="E21">
-        <v>0.9893874483568524</v>
+        <v>0.9894155838984896</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9530414163707163</v>
+        <v>0.9530247358252357</v>
       </c>
       <c r="H21">
-        <v>0.9872547551565469</v>
+        <v>0.9872388670953213</v>
       </c>
       <c r="I21">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L21">
-        <v>0.9772449516489163</v>
+        <v>0.9769906878454041</v>
       </c>
       <c r="M21">
-        <v>0.9663025680481264</v>
+        <v>0.9662863419410046</v>
       </c>
       <c r="N21">
-        <v>0.9769263179863045</v>
+        <v>0.9769550361773708</v>
       </c>
       <c r="O21">
-        <v>0.9446916977742585</v>
+        <v>0.9446748496790485</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,43 +1367,43 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.9845731380289761</v>
+        <v>0.9841832068619153</v>
       </c>
       <c r="D22">
-        <v>0.9859564447244364</v>
+        <v>0.9859084999338397</v>
       </c>
       <c r="E22">
-        <v>0.9890521756492937</v>
+        <v>0.9890776556479702</v>
       </c>
       <c r="F22">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9515972186121013</v>
+        <v>0.9515467208653408</v>
       </c>
       <c r="H22">
-        <v>0.986850774800022</v>
+        <v>0.9868027865202139</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J22">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K22">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L22">
-        <v>0.9764562088439657</v>
+        <v>0.9760625907604227</v>
       </c>
       <c r="M22">
-        <v>0.9658164608931713</v>
+        <v>0.9657674422124999</v>
       </c>
       <c r="N22">
-        <v>0.9761799702862459</v>
+        <v>0.9762060070822738</v>
       </c>
       <c r="O22">
-        <v>0.9431554439876264</v>
+        <v>0.9431044276669356</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,22 +1414,22 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.9839830022426018</v>
+        <v>0.9834994608158117</v>
       </c>
       <c r="D23">
-        <v>0.9856293993180298</v>
+        <v>0.9855554499930854</v>
       </c>
       <c r="E23">
-        <v>0.9887813243630654</v>
+        <v>0.9888016143011931</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G23">
-        <v>0.9504565495150014</v>
+        <v>0.9503785206044419</v>
       </c>
       <c r="H23">
-        <v>0.9865234327410151</v>
+        <v>0.9864494163389643</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1438,19 +1438,19 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="L23">
-        <v>0.9758044219129665</v>
+        <v>0.9753162384266062</v>
       </c>
       <c r="M23">
-        <v>0.9654246373190298</v>
+        <v>0.9653490202031481</v>
       </c>
       <c r="N23">
-        <v>0.9755848406081365</v>
+        <v>0.9756055923694125</v>
       </c>
       <c r="O23">
-        <v>0.9419423255905427</v>
+        <v>0.9418634814448079</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,43 +1461,43 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.9837729162761213</v>
+        <v>0.9832502738100292</v>
       </c>
       <c r="D24">
-        <v>0.9855036704071142</v>
+        <v>0.9854199299442653</v>
       </c>
       <c r="E24">
-        <v>0.9886685102662076</v>
+        <v>0.9886874752218757</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G24">
-        <v>0.9500244963744096</v>
+        <v>0.9499360750910399</v>
       </c>
       <c r="H24">
-        <v>0.9863975897853591</v>
+        <v>0.9863137733641709</v>
       </c>
       <c r="I24">
         <v>0.9999999999999998</v>
       </c>
       <c r="J24">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="K24">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9755712247422376</v>
+        <v>0.9750435362956635</v>
       </c>
       <c r="M24">
-        <v>0.9652744599096016</v>
+        <v>0.9651888259231005</v>
       </c>
       <c r="N24">
-        <v>0.9753491231228036</v>
+        <v>0.9753685263057873</v>
       </c>
       <c r="O24">
-        <v>0.9414828910056526</v>
+        <v>0.9413935399046053</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,43 +1508,43 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.9850217630367394</v>
+        <v>0.9846668637949284</v>
       </c>
       <c r="D25">
-        <v>0.9861190159600771</v>
+        <v>0.9860938647822785</v>
       </c>
       <c r="E25">
-        <v>0.989111086301563</v>
+        <v>0.9891487909489759</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G25">
-        <v>0.9522190011877131</v>
+        <v>0.9521925377172773</v>
       </c>
       <c r="H25">
-        <v>0.9870134934989163</v>
+        <v>0.9869883195072755</v>
       </c>
       <c r="I25">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L25">
-        <v>0.9769407440714236</v>
+        <v>0.9765825188706625</v>
       </c>
       <c r="M25">
-        <v>0.9660151609987248</v>
+        <v>0.9659894486368407</v>
       </c>
       <c r="N25">
-        <v>0.9764192447764228</v>
+        <v>0.9764577544198606</v>
       </c>
       <c r="O25">
-        <v>0.9438178265447387</v>
+        <v>0.9437910939471529</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -427,43 +427,43 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.98722486234795</v>
+        <v>1.000622686334603</v>
       </c>
       <c r="D2">
-        <v>0.987551416639799</v>
+        <v>1.00042768552868</v>
       </c>
       <c r="E2">
-        <v>0.9903979907965059</v>
+        <v>1.000137389058627</v>
       </c>
       <c r="F2">
         <v>0.9999999999999999</v>
       </c>
       <c r="G2">
-        <v>0.9579241272086482</v>
+        <v>0.9994409678554768</v>
       </c>
       <c r="H2">
-        <v>0.9884471934642353</v>
+        <v>1.001335142011575</v>
       </c>
       <c r="I2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L2">
-        <v>0.9794579675122133</v>
+        <v>0.9929700189459452</v>
       </c>
       <c r="M2">
-        <v>0.9677808894089623</v>
+        <v>0.9809305430599641</v>
       </c>
       <c r="N2">
-        <v>0.9793561654730562</v>
+        <v>0.9892571214978071</v>
       </c>
       <c r="O2">
-        <v>0.9498944744561769</v>
+        <v>0.9917783673874212</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,25 +474,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9876089996994484</v>
+        <v>1.000648887587357</v>
       </c>
       <c r="D3">
-        <v>0.9878356887445026</v>
+        <v>1.000451453704671</v>
       </c>
       <c r="E3">
-        <v>0.9906893773615444</v>
+        <v>1.00016349331431</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9594681000581347</v>
+        <v>0.9995328624433907</v>
       </c>
       <c r="H3">
-        <v>0.9887317234232228</v>
+        <v>1.00135893174693</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9799320569826069</v>
+        <v>0.9930806770244589</v>
       </c>
       <c r="M3">
-        <v>0.9681601790050226</v>
+        <v>0.9810412564835645</v>
       </c>
       <c r="N3">
-        <v>0.980115765231552</v>
+        <v>0.9897355225267479</v>
       </c>
       <c r="O3">
-        <v>0.9515449584529575</v>
+        <v>0.9919554724000207</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -521,22 +521,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9877794537499327</v>
+        <v>1.000673233931444</v>
       </c>
       <c r="D4">
-        <v>0.9880275272105017</v>
+        <v>1.000471764099104</v>
       </c>
       <c r="E4">
-        <v>0.9909305161866604</v>
+        <v>1.000184803473164</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9606372014512415</v>
+        <v>0.9996069307097758</v>
       </c>
       <c r="H4">
-        <v>0.988923735899858</v>
+        <v>1.001379260564283</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -548,16 +548,16 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9801710041069849</v>
+        <v>0.9931704736126865</v>
       </c>
       <c r="M4">
-        <v>0.9684248828301363</v>
+        <v>0.9811289238264292</v>
       </c>
       <c r="N4">
-        <v>0.9807134626039185</v>
+        <v>0.9901015465064754</v>
       </c>
       <c r="O4">
-        <v>0.9527957510918386</v>
+        <v>0.9920955465680324</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -568,22 +568,22 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9878550553116743</v>
+        <v>1.000685687303153</v>
       </c>
       <c r="D5">
-        <v>0.988141491937284</v>
+        <v>1.000482319909576</v>
       </c>
       <c r="E5">
-        <v>0.9910898795954284</v>
+        <v>1.000196002764639</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G5">
-        <v>0.9612604752976902</v>
+        <v>0.9996457784217335</v>
       </c>
       <c r="H5">
-        <v>0.989037804000459</v>
+        <v>1.001389825949598</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -595,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9802820460563326</v>
+        <v>0.9932169198772401</v>
       </c>
       <c r="M5">
-        <v>0.9685769526744732</v>
+        <v>0.9811744545551909</v>
       </c>
       <c r="N5">
-        <v>0.9810561585535791</v>
+        <v>0.9902896941478881</v>
       </c>
       <c r="O5">
-        <v>0.9534614041628419</v>
+        <v>0.9921686740540031</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -615,22 +615,22 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.987894475847177</v>
+        <v>1.000690674793759</v>
       </c>
       <c r="D6">
-        <v>0.9882001301247089</v>
+        <v>1.000486745589122</v>
       </c>
       <c r="E6">
-        <v>0.991172798669385</v>
+        <v>1.000200823596734</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9615395268437917</v>
+        <v>0.9996624957564926</v>
       </c>
       <c r="H6">
-        <v>0.9890964953767393</v>
+        <v>1.00139425564354</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -639,19 +639,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L6">
-        <v>0.980336811083301</v>
+        <v>0.9932365737097123</v>
       </c>
       <c r="M6">
-        <v>0.9686522240057741</v>
+        <v>0.9811939685496838</v>
       </c>
       <c r="N6">
-        <v>0.981217862943727</v>
+        <v>0.9903704100706129</v>
       </c>
       <c r="O6">
-        <v>0.9537587909406448</v>
+        <v>0.9922001828926909</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -662,43 +662,43 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.987894475847177</v>
+        <v>1.0006863141471</v>
       </c>
       <c r="D7">
-        <v>0.9882001301247089</v>
+        <v>1.000484981855278</v>
       </c>
       <c r="E7">
-        <v>0.991172798669385</v>
+        <v>1.000199980933393</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9615395268437917</v>
+        <v>0.9996607263622661</v>
       </c>
       <c r="H7">
-        <v>0.9890964953767393</v>
+        <v>1.001392490309868</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0.9999999999999999</v>
       </c>
       <c r="L7">
-        <v>0.980336811083301</v>
+        <v>0.993232178275632</v>
       </c>
       <c r="M7">
-        <v>0.9686522240057741</v>
+        <v>0.9811921686871382</v>
       </c>
       <c r="N7">
-        <v>0.981217862943727</v>
+        <v>0.9903695559363657</v>
       </c>
       <c r="O7">
-        <v>0.9537587909406448</v>
+        <v>0.9921983993505202</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -709,43 +709,43 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9878998000089524</v>
+        <v>1.000683736405587</v>
       </c>
       <c r="D8">
-        <v>0.9881981665261929</v>
+        <v>1.00048335451887</v>
       </c>
       <c r="E8">
-        <v>0.9911679194277765</v>
+        <v>1.000198586415924</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9614836023582554</v>
+        <v>0.999656058688524</v>
       </c>
       <c r="H8">
-        <v>0.989094529997105</v>
+        <v>1.001390861497355</v>
       </c>
       <c r="I8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9803384719497852</v>
+        <v>0.9932259697655483</v>
       </c>
       <c r="M8">
-        <v>0.9686464190288386</v>
+        <v>0.9811868063691432</v>
       </c>
       <c r="N8">
-        <v>0.9811937870360463</v>
+        <v>0.9903494526298356</v>
       </c>
       <c r="O8">
-        <v>0.9536984564298719</v>
+        <v>0.9921900765318403</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -756,43 +756,43 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.987840371662517</v>
+        <v>1.000666468136869</v>
       </c>
       <c r="D9">
-        <v>0.988081247363093</v>
+        <v>1.000467842017148</v>
       </c>
       <c r="E9">
-        <v>0.9910037015453369</v>
+        <v>1.000181866556255</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9605768794513942</v>
+        <v>0.9995965293664059</v>
       </c>
       <c r="H9">
-        <v>0.98897750478031</v>
+        <v>1.001375334924729</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9802244158546634</v>
+        <v>0.9931558529481095</v>
       </c>
       <c r="M9">
-        <v>0.9684715225127976</v>
+        <v>0.9811169206707427</v>
       </c>
       <c r="N9">
-        <v>0.9807458402642011</v>
+        <v>0.9900576725936259</v>
       </c>
       <c r="O9">
-        <v>0.9527263949707442</v>
+        <v>0.9920772434244498</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -803,43 +803,43 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9872694258494407</v>
+        <v>1.000625294634556</v>
       </c>
       <c r="D10">
-        <v>0.9876107982487885</v>
+        <v>1.000429804225291</v>
       </c>
       <c r="E10">
-        <v>0.9904849578562158</v>
+        <v>1.000139755932562</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G10">
-        <v>0.9580793070691056</v>
+        <v>0.9994481406583978</v>
       </c>
       <c r="H10">
-        <v>0.9885066289364144</v>
+        <v>1.001337262629988</v>
       </c>
       <c r="I10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.979509406797554</v>
+        <v>0.9929789542249997</v>
       </c>
       <c r="M10">
-        <v>0.96784820972518</v>
+        <v>0.9809391779520938</v>
       </c>
       <c r="N10">
-        <v>0.9794795720535342</v>
+        <v>0.9892936173015655</v>
       </c>
       <c r="O10">
-        <v>0.9500580226943661</v>
+        <v>0.9917919215754062</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -850,43 +850,43 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9862307340758462</v>
+        <v>1.000582054355209</v>
       </c>
       <c r="D11">
-        <v>0.9869852178096228</v>
+        <v>1.000391595425291</v>
       </c>
       <c r="E11">
-        <v>0.9899250861764303</v>
+        <v>1.000097754307588</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G11">
-        <v>0.9554166650214272</v>
+        <v>0.9993024243357699</v>
       </c>
       <c r="H11">
-        <v>0.9878804810529113</v>
+        <v>1.001299019171988</v>
       </c>
       <c r="I11">
         <v>0.9999999999999999</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L11">
-        <v>0.9783213402664583</v>
+        <v>0.9927993114579459</v>
       </c>
       <c r="M11">
-        <v>0.9670651811333939</v>
+        <v>0.9807604900997736</v>
       </c>
       <c r="N11">
-        <v>0.9781453134004396</v>
+        <v>0.9885064957960398</v>
       </c>
       <c r="O11">
-        <v>0.9472200771703594</v>
+        <v>0.9915085623489757</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -897,43 +897,43 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9855834402954584</v>
+        <v>1.000559426639291</v>
       </c>
       <c r="D12">
-        <v>0.9866384438182799</v>
+        <v>1.000372491282045</v>
       </c>
       <c r="E12">
-        <v>0.9896536323065034</v>
+        <v>1.00007705577667</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G12">
-        <v>0.9540671163609479</v>
+        <v>0.9992315333092147</v>
       </c>
       <c r="H12">
-        <v>0.9875333925137895</v>
+        <v>1.001279897699974</v>
       </c>
       <c r="I12">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0.9999999999999999</v>
       </c>
       <c r="L12">
-        <v>0.9775990780185164</v>
+        <v>0.99270960401668</v>
       </c>
       <c r="M12">
-        <v>0.9666399108902591</v>
+        <v>0.9806722775622932</v>
       </c>
       <c r="N12">
-        <v>0.9774856661610528</v>
+        <v>0.9881130276643748</v>
       </c>
       <c r="O12">
-        <v>0.9457830715324316</v>
+        <v>0.9913699747436218</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -944,43 +944,43 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9852337690677399</v>
+        <v>1.000541244143242</v>
       </c>
       <c r="D13">
-        <v>0.9864036000596396</v>
+        <v>1.000357471265527</v>
       </c>
       <c r="E13">
-        <v>0.9894493399398639</v>
+        <v>1.000060753421116</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9530416585201332</v>
+        <v>0.9991760424823473</v>
       </c>
       <c r="H13">
-        <v>0.9872983357357633</v>
+        <v>1.001264864059272</v>
       </c>
       <c r="I13">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J13">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="K13">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.977191504584944</v>
+        <v>0.9926384098310759</v>
       </c>
       <c r="M13">
-        <v>0.9663437974547694</v>
+        <v>0.9806026348348821</v>
       </c>
       <c r="N13">
-        <v>0.9769715554274664</v>
+        <v>0.9877994012687674</v>
       </c>
       <c r="O13">
-        <v>0.9446884949802739</v>
+        <v>0.9912609805939937</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -991,43 +991,43 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9853234093738364</v>
+        <v>1.000537865757148</v>
       </c>
       <c r="D14">
-        <v>0.9864050792078906</v>
+        <v>1.000354864844444</v>
       </c>
       <c r="E14">
-        <v>0.9894342666053993</v>
+        <v>1.000057949301194</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G14">
-        <v>0.9529055985737532</v>
+        <v>0.999166323554609</v>
       </c>
       <c r="H14">
-        <v>0.9872998162257033</v>
+        <v>1.001262255273986</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J14">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9772723100427754</v>
+        <v>0.9926256613463961</v>
       </c>
       <c r="M14">
-        <v>0.9663353953797639</v>
+        <v>0.9805903750571657</v>
       </c>
       <c r="N14">
-        <v>0.9769018798067122</v>
+        <v>0.9877438106887179</v>
       </c>
       <c r="O14">
-        <v>0.9445406379477773</v>
+        <v>0.9912418059023099</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1038,43 +1038,43 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9855146513788434</v>
+        <v>1.000542284819078</v>
       </c>
       <c r="D15">
-        <v>0.9865001745923175</v>
+        <v>1.000358721834498</v>
       </c>
       <c r="E15">
-        <v>0.9895155407872334</v>
+        <v>1.000062225962589</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9532037718496198</v>
+        <v>0.9991804306813162</v>
       </c>
       <c r="H15">
-        <v>0.9873949978681615</v>
+        <v>1.001266115762595</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J15">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L15">
-        <v>0.9774792489376636</v>
+        <v>0.9926435746617879</v>
       </c>
       <c r="M15">
-        <v>0.9664468831325859</v>
+        <v>0.9806081404546154</v>
       </c>
       <c r="N15">
-        <v>0.9770630191626122</v>
+        <v>0.9878241117195113</v>
       </c>
       <c r="O15">
-        <v>0.9448568286540991</v>
+        <v>0.9912695355450851</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1085,43 +1085,43 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.9855526308534452</v>
+        <v>1.000542092452296</v>
       </c>
       <c r="D16">
-        <v>0.986499829687816</v>
+        <v>1.000358612251927</v>
       </c>
       <c r="E16">
-        <v>0.9894971583530169</v>
+        <v>1.000062063524042</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G16">
-        <v>0.9532015198200863</v>
+        <v>0.9991802229992125</v>
       </c>
       <c r="H16">
-        <v>0.9873946526508084</v>
+        <v>1.001266006080625</v>
       </c>
       <c r="I16">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K16">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L16">
-        <v>0.9775174475055459</v>
+        <v>0.9926432523169973</v>
       </c>
       <c r="M16">
-        <v>0.9664463944677799</v>
+        <v>0.9806078967258739</v>
       </c>
       <c r="N16">
-        <v>0.9770435120515623</v>
+        <v>0.987823222842206</v>
       </c>
       <c r="O16">
-        <v>0.944854410921791</v>
+        <v>0.9912691973514873</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,25 +1132,25 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.985580116482076</v>
+        <v>1.000541652408659</v>
       </c>
       <c r="D17">
-        <v>0.986492087534528</v>
+        <v>1.000358286554168</v>
       </c>
       <c r="E17">
-        <v>0.9894694859120562</v>
+        <v>1.000061650701614</v>
       </c>
       <c r="F17">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G17">
-        <v>0.9531813221283109</v>
+        <v>0.9991792725455588</v>
       </c>
       <c r="H17">
-        <v>0.9873869034748565</v>
+        <v>1.001265680087436</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J17">
         <v>0.9999999999999999</v>
@@ -1159,16 +1159,16 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.9775443408449426</v>
+        <v>0.9926419896014912</v>
       </c>
       <c r="M17">
-        <v>0.9664376116439523</v>
+        <v>0.9806067227458315</v>
       </c>
       <c r="N17">
-        <v>0.9770105143303741</v>
+        <v>0.9878181849707141</v>
       </c>
       <c r="O17">
-        <v>0.944833096971583</v>
+        <v>0.9912674171440682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,25 +1179,25 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.9859533247036433</v>
+        <v>1.000555976898579</v>
       </c>
       <c r="D18">
-        <v>0.9867084033629205</v>
+        <v>1.000370509319813</v>
       </c>
       <c r="E18">
-        <v>0.9896518630620499</v>
+        <v>1.000075032589469</v>
       </c>
       <c r="F18">
         <v>0.9999999999999999</v>
       </c>
       <c r="G18">
-        <v>0.9540459046536269</v>
+        <v>0.999224614024952</v>
       </c>
       <c r="H18">
-        <v>0.9876034155165326</v>
+        <v>1.001277913939967</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J18">
         <v>0.9999999999999999</v>
@@ -1206,16 +1206,16 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.97796571058855</v>
+        <v>0.9926997039777591</v>
       </c>
       <c r="M18">
-        <v>0.9667046070694706</v>
+        <v>0.980663657766065</v>
       </c>
       <c r="N18">
-        <v>0.9774468743232348</v>
+        <v>0.9880750142808115</v>
       </c>
       <c r="O18">
-        <v>0.945754506733145</v>
+        <v>0.9913565553642379</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,43 +1226,43 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.986139910862973</v>
+        <v>1.000564856698452</v>
       </c>
       <c r="D19">
-        <v>0.9868243669812334</v>
+        <v>1.000378000601609</v>
       </c>
       <c r="E19">
-        <v>0.98974717599496</v>
+        <v>1.000083169866812</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G19">
-        <v>0.9545583160048394</v>
+        <v>0.999252533221669</v>
       </c>
       <c r="H19">
-        <v>0.9877194843217955</v>
+        <v>1.001285412016869</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9781813892374009</v>
+        <v>0.9927351777565511</v>
       </c>
       <c r="M19">
-        <v>0.9668512350199939</v>
+        <v>0.9806985490841018</v>
       </c>
       <c r="N19">
-        <v>0.9776965802473293</v>
+        <v>0.9882315646229769</v>
       </c>
       <c r="O19">
-        <v>0.9463014534431416</v>
+        <v>0.9914113147767259</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,43 +1273,43 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9859748185792809</v>
+        <v>1.000565649895043</v>
       </c>
       <c r="D20">
-        <v>0.9867891676006698</v>
+        <v>1.000378103869158</v>
       </c>
       <c r="E20">
-        <v>0.9897402244830343</v>
+        <v>1.000083159769493</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G20">
-        <v>0.9545185399308425</v>
+        <v>0.9992524866077929</v>
       </c>
       <c r="H20">
-        <v>0.987684253012981</v>
+        <v>1.001285515378089</v>
       </c>
       <c r="I20">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9780145951776529</v>
+        <v>0.992735783090937</v>
       </c>
       <c r="M20">
-        <v>0.966815054525077</v>
+        <v>0.9806984544175619</v>
       </c>
       <c r="N20">
-        <v>0.9776883745528751</v>
+        <v>0.9882304672405625</v>
       </c>
       <c r="O20">
-        <v>0.9462610702466566</v>
+        <v>0.9914110723598614</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,43 +1320,43 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.9850316296575014</v>
+        <v>1.00054239099987</v>
       </c>
       <c r="D21">
-        <v>0.9863441853124457</v>
+        <v>1.000358201871338</v>
       </c>
       <c r="E21">
-        <v>0.9894155838984896</v>
+        <v>1.000061505170543</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G21">
-        <v>0.9530247358252357</v>
+        <v>0.9991791271971745</v>
       </c>
       <c r="H21">
-        <v>0.9872388670953213</v>
+        <v>1.001265595327792</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K21">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9769906878454041</v>
+        <v>0.9926426555460733</v>
       </c>
       <c r="M21">
-        <v>0.9662863419410046</v>
+        <v>0.9806065548145206</v>
       </c>
       <c r="N21">
-        <v>0.9769550361773708</v>
+        <v>0.9878175896396908</v>
       </c>
       <c r="O21">
-        <v>0.9446748496790485</v>
+        <v>0.9912671910052615</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,43 +1367,43 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.9841832068619153</v>
+        <v>1.000518484892692</v>
       </c>
       <c r="D22">
-        <v>0.9859084999338397</v>
+        <v>1.000338356618687</v>
       </c>
       <c r="E22">
-        <v>0.9890776556479702</v>
+        <v>1.000039924408681</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9515467208653408</v>
+        <v>0.9991068376800544</v>
       </c>
       <c r="H22">
-        <v>0.9868027865202139</v>
+        <v>1.001245732074136</v>
       </c>
       <c r="I22">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J22">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9760625907604227</v>
+        <v>0.9925493520037492</v>
       </c>
       <c r="M22">
-        <v>0.9657674422124999</v>
+        <v>0.980515185785389</v>
       </c>
       <c r="N22">
-        <v>0.9762060070822738</v>
+        <v>0.9874034852814022</v>
       </c>
       <c r="O22">
-        <v>0.9431044276669356</v>
+        <v>0.9911248500884366</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,43 +1414,43 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.9834994608158117</v>
+        <v>1.000499703369272</v>
       </c>
       <c r="D23">
-        <v>0.9855554499930854</v>
+        <v>1.000322888296105</v>
       </c>
       <c r="E23">
-        <v>0.9888016143011931</v>
+        <v>1.000023061129193</v>
       </c>
       <c r="F23">
         <v>0.9999999999999999</v>
       </c>
       <c r="G23">
-        <v>0.9503785206044419</v>
+        <v>0.9990508584695077</v>
       </c>
       <c r="H23">
-        <v>0.9864494163389643</v>
+        <v>1.001230249720727</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K23">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L23">
-        <v>0.9753162384266062</v>
+        <v>0.9924764089133986</v>
       </c>
       <c r="M23">
-        <v>0.9653490202031481</v>
+        <v>0.9804438867961116</v>
       </c>
       <c r="N23">
-        <v>0.9756055923694125</v>
+        <v>0.9870776704419357</v>
       </c>
       <c r="O23">
-        <v>0.9418634814448079</v>
+        <v>0.9910141921551594</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,43 +1461,43 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.9832502738100292</v>
+        <v>1.000492637765728</v>
       </c>
       <c r="D24">
-        <v>0.9854199299442653</v>
+        <v>1.000317066453466</v>
       </c>
       <c r="E24">
-        <v>0.9886874752218757</v>
+        <v>1.000016668385421</v>
       </c>
       <c r="F24">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9499360750910399</v>
+        <v>0.9990298948186871</v>
       </c>
       <c r="H24">
-        <v>0.9863137733641709</v>
+        <v>1.001224422597276</v>
       </c>
       <c r="I24">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J24">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L24">
-        <v>0.9750435362956635</v>
+        <v>0.9924489784594769</v>
       </c>
       <c r="M24">
-        <v>0.9651888259231005</v>
+        <v>0.9804170700242427</v>
       </c>
       <c r="N24">
-        <v>0.9753685263057873</v>
+        <v>0.9869545402507429</v>
       </c>
       <c r="O24">
-        <v>0.9413935399046053</v>
+        <v>0.9909726673358247</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,43 +1508,43 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.9846668637949284</v>
+        <v>1.000528998179837</v>
       </c>
       <c r="D25">
-        <v>0.9860938647822785</v>
+        <v>1.000346929843557</v>
       </c>
       <c r="E25">
-        <v>0.9891487909489759</v>
+        <v>1.000048960622729</v>
       </c>
       <c r="F25">
         <v>0.9999999999999999</v>
       </c>
       <c r="G25">
-        <v>0.9521925377172773</v>
+        <v>0.9991385124171362</v>
       </c>
       <c r="H25">
-        <v>0.9869883195072755</v>
+        <v>1.001254313075509</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K25">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9765825188706625</v>
+        <v>0.9925905363628479</v>
       </c>
       <c r="M25">
-        <v>0.9659894486368407</v>
+        <v>0.9805553681104977</v>
       </c>
       <c r="N25">
-        <v>0.9764577544198606</v>
+        <v>0.9875864685552728</v>
       </c>
       <c r="O25">
-        <v>0.9437910939471529</v>
+        <v>0.9911874850353689</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -427,22 +427,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.000622686334603</v>
+        <v>1.00026317674099</v>
       </c>
       <c r="D2">
-        <v>1.00042768552868</v>
+        <v>1.000357278396573</v>
       </c>
       <c r="E2">
-        <v>1.000137389058627</v>
+        <v>0.9997792282024788</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9994409678554768</v>
+        <v>1.001351915194341</v>
       </c>
       <c r="H2">
-        <v>1.001335142011575</v>
+        <v>1.000819428293415</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -451,19 +451,19 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L2">
-        <v>0.9929700189459452</v>
+        <v>0.9926074903141147</v>
       </c>
       <c r="M2">
-        <v>0.9809305430599641</v>
+        <v>0.9808586624398342</v>
       </c>
       <c r="N2">
-        <v>0.9892571214978071</v>
+        <v>0.9888931052373043</v>
       </c>
       <c r="O2">
-        <v>0.9917783673874212</v>
+        <v>0.993705363945057</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,25 +474,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000648887587357</v>
+        <v>1.000285427943583</v>
       </c>
       <c r="D3">
-        <v>1.000451453704671</v>
+        <v>1.00038485936191</v>
       </c>
       <c r="E3">
-        <v>1.00016349331431</v>
+        <v>0.9998285161384071</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9995328624433907</v>
+        <v>1.001387368312963</v>
       </c>
       <c r="H3">
-        <v>1.00135893174693</v>
+        <v>1.000827792110808</v>
       </c>
       <c r="I3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9930806770244589</v>
+        <v>0.9927142304286155</v>
       </c>
       <c r="M3">
-        <v>0.9810412564835645</v>
+        <v>0.9809732811436535</v>
       </c>
       <c r="N3">
-        <v>0.9897355225267479</v>
+        <v>0.9893954666143844</v>
       </c>
       <c r="O3">
-        <v>0.9919554724000207</v>
+        <v>0.9938252190674645</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -521,25 +521,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.000673233931444</v>
+        <v>1.000302806600426</v>
       </c>
       <c r="D4">
-        <v>1.000471764099104</v>
+        <v>1.000406512394133</v>
       </c>
       <c r="E4">
-        <v>1.000184803473164</v>
+        <v>0.9998665586998624</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4">
-        <v>0.9996069307097758</v>
+        <v>1.001415658400207</v>
       </c>
       <c r="H4">
-        <v>1.001379260564283</v>
+        <v>1.000834168756449</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -548,16 +548,16 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9931704736126865</v>
+        <v>0.9927970527658823</v>
       </c>
       <c r="M4">
-        <v>0.9811289238264292</v>
+        <v>0.9810623284484695</v>
       </c>
       <c r="N4">
-        <v>0.9901015465064754</v>
+        <v>0.9897787611353542</v>
       </c>
       <c r="O4">
-        <v>0.9920955465680324</v>
+        <v>0.9939188902872917</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -568,43 +568,43 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.000685687303153</v>
+        <v>1.000311977695867</v>
       </c>
       <c r="D5">
-        <v>1.000482319909576</v>
+        <v>1.000417983778908</v>
       </c>
       <c r="E5">
-        <v>1.000196002764639</v>
+        <v>0.9998865813460768</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9996457784217335</v>
+        <v>1.001430789772452</v>
       </c>
       <c r="H5">
-        <v>1.001389825949598</v>
+        <v>1.000837557779092</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9932169198772401</v>
+        <v>0.9928402164794473</v>
       </c>
       <c r="M5">
-        <v>0.9811744545551909</v>
+        <v>0.9811087984025294</v>
       </c>
       <c r="N5">
-        <v>0.9902896941478881</v>
+        <v>0.989975998737885</v>
       </c>
       <c r="O5">
-        <v>0.9921686740540031</v>
+        <v>0.9939679838942062</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -615,43 +615,43 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1.000690674793759</v>
+        <v>1.000315977591706</v>
       </c>
       <c r="D6">
-        <v>1.000486745589122</v>
+        <v>1.000423008847602</v>
       </c>
       <c r="E6">
-        <v>1.000200823596734</v>
+        <v>0.9998953473745364</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G6">
-        <v>0.9996624957564926</v>
+        <v>1.001437448185807</v>
       </c>
       <c r="H6">
-        <v>1.00139425564354</v>
+        <v>1.000839057540383</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L6">
-        <v>0.9932365737097123</v>
+        <v>0.9928588860918723</v>
       </c>
       <c r="M6">
-        <v>0.9811939685496838</v>
+        <v>0.9811289261221643</v>
       </c>
       <c r="N6">
-        <v>0.9903704100706129</v>
+        <v>0.990060773664254</v>
       </c>
       <c r="O6">
-        <v>0.9922001828926909</v>
+        <v>0.9939892995521405</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -662,43 +662,43 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1.0006863141471</v>
+        <v>1.00031602193321</v>
       </c>
       <c r="D7">
-        <v>1.000484981855278</v>
+        <v>1.000423019922807</v>
       </c>
       <c r="E7">
-        <v>1.000199980933393</v>
+        <v>0.9998957568483596</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G7">
-        <v>0.9996607263622661</v>
+        <v>1.00143730164193</v>
       </c>
       <c r="H7">
-        <v>1.001392490309868</v>
+        <v>1.000839104014273</v>
       </c>
       <c r="I7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K7">
         <v>0.9999999999999999</v>
       </c>
       <c r="L7">
-        <v>0.993232178275632</v>
+        <v>0.9928589307874085</v>
       </c>
       <c r="M7">
-        <v>0.9811921686871382</v>
+        <v>0.9811289374242674</v>
       </c>
       <c r="N7">
-        <v>0.9903695559363657</v>
+        <v>0.9900611887170347</v>
       </c>
       <c r="O7">
-        <v>0.9921983993505202</v>
+        <v>0.9939891518411516</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -709,43 +709,43 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1.000683736405587</v>
+        <v>1.000315046591865</v>
       </c>
       <c r="D8">
-        <v>1.00048335451887</v>
+        <v>1.000421815083558</v>
       </c>
       <c r="E8">
-        <v>1.000198586415924</v>
+        <v>0.9998937634977185</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.999656058688524</v>
+        <v>1.001435714277809</v>
       </c>
       <c r="H8">
-        <v>1.001390861497355</v>
+        <v>1.000838731956097</v>
       </c>
       <c r="I8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9932259697655483</v>
+        <v>0.992854334724629</v>
       </c>
       <c r="M8">
-        <v>0.9811868063691432</v>
+        <v>0.9811240057729029</v>
       </c>
       <c r="N8">
-        <v>0.9903494526298356</v>
+        <v>0.9900404638497998</v>
       </c>
       <c r="O8">
-        <v>0.9921900765318403</v>
+        <v>0.9939839471871156</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -756,43 +756,43 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.000666468136869</v>
+        <v>1.000300837823357</v>
       </c>
       <c r="D9">
-        <v>1.000467842017148</v>
+        <v>1.000404230426406</v>
       </c>
       <c r="E9">
-        <v>1.000181866556255</v>
+        <v>0.9998627917250761</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9995965293664059</v>
+        <v>1.001412824746579</v>
       </c>
       <c r="H9">
-        <v>1.001375334924729</v>
+        <v>1.000833550848637</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J9">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L9">
-        <v>0.9931558529481095</v>
+        <v>0.9927872619307571</v>
       </c>
       <c r="M9">
-        <v>0.9811169206707427</v>
+        <v>0.9810519980814509</v>
       </c>
       <c r="N9">
-        <v>0.9900576725936259</v>
+        <v>0.9897340116298288</v>
       </c>
       <c r="O9">
-        <v>0.9920772434244498</v>
+        <v>0.9939082456357428</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -803,43 +803,43 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1.000625294634556</v>
+        <v>1.000264830138818</v>
       </c>
       <c r="D10">
-        <v>1.000429804225291</v>
+        <v>1.000359517403411</v>
       </c>
       <c r="E10">
-        <v>1.000139755932562</v>
+        <v>0.999783116290003</v>
       </c>
       <c r="F10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9994481406583978</v>
+        <v>1.001355045587045</v>
       </c>
       <c r="H10">
-        <v>1.001337262629988</v>
+        <v>1.00082007477179</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L10">
-        <v>0.9929789542249997</v>
+        <v>0.9926154675567554</v>
       </c>
       <c r="M10">
-        <v>0.9809391779520938</v>
+        <v>0.9808674211719461</v>
       </c>
       <c r="N10">
-        <v>0.9892936173015655</v>
+        <v>0.9889311792571355</v>
       </c>
       <c r="O10">
-        <v>0.9917919215754062</v>
+        <v>0.9937148158161553</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -850,43 +850,43 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.000582054355209</v>
+        <v>1.000229136227305</v>
       </c>
       <c r="D11">
-        <v>1.000391595425291</v>
+        <v>1.00031521349296</v>
       </c>
       <c r="E11">
-        <v>1.000097754307588</v>
+        <v>0.999703485905316</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G11">
-        <v>0.9993024243357699</v>
+        <v>1.001298620633009</v>
       </c>
       <c r="H11">
-        <v>1.001299019171988</v>
+        <v>1.000805970658506</v>
       </c>
       <c r="I11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J11">
         <v>0.9999999999999999</v>
       </c>
       <c r="K11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9927993114579459</v>
+        <v>0.9924433300573453</v>
       </c>
       <c r="M11">
-        <v>0.9807604900997736</v>
+        <v>0.9806824867456615</v>
       </c>
       <c r="N11">
-        <v>0.9885064957960398</v>
+        <v>0.9881050346055927</v>
       </c>
       <c r="O11">
-        <v>0.9915085623489757</v>
+        <v>0.993522089611</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -897,43 +897,43 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1.000559426639291</v>
+        <v>1.000211941179977</v>
       </c>
       <c r="D12">
-        <v>1.000372491282045</v>
+        <v>1.000293792718177</v>
       </c>
       <c r="E12">
-        <v>1.00007705577667</v>
+        <v>0.9996647329829094</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.9992315333092147</v>
+        <v>1.001271536470367</v>
       </c>
       <c r="H12">
-        <v>1.001279897699974</v>
+        <v>1.00079913950969</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.99270960401668</v>
+        <v>0.9923590510468787</v>
       </c>
       <c r="M12">
-        <v>0.9806722775622932</v>
+        <v>0.9805918960348409</v>
       </c>
       <c r="N12">
-        <v>0.9881130276643748</v>
+        <v>0.9876927679217495</v>
       </c>
       <c r="O12">
-        <v>0.9913699747436218</v>
+        <v>0.9934279922753853</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -944,43 +944,43 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1.000541244143242</v>
+        <v>1.000198835146264</v>
       </c>
       <c r="D13">
-        <v>1.000357471265527</v>
+        <v>1.000277130767634</v>
       </c>
       <c r="E13">
-        <v>1.000060753421116</v>
+        <v>0.9996342601509813</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G13">
-        <v>0.9991760424823473</v>
+        <v>1.001250611470924</v>
       </c>
       <c r="H13">
-        <v>1.001264864059272</v>
+        <v>1.00079401148348</v>
       </c>
       <c r="I13">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L13">
-        <v>0.9926384098310759</v>
+        <v>0.9922929377596799</v>
       </c>
       <c r="M13">
-        <v>0.9806026348348821</v>
+        <v>0.9805205661955255</v>
       </c>
       <c r="N13">
-        <v>0.9877994012687674</v>
+        <v>0.9873643536616487</v>
       </c>
       <c r="O13">
-        <v>0.9912609805939937</v>
+        <v>0.9933541149514495</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -991,43 +991,43 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1.000537865757148</v>
+        <v>1.000196799575773</v>
       </c>
       <c r="D14">
-        <v>1.000354864844444</v>
+        <v>1.000274332916372</v>
       </c>
       <c r="E14">
-        <v>1.000057949301194</v>
+        <v>0.9996289701688206</v>
       </c>
       <c r="F14">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G14">
-        <v>0.999166323554609</v>
+        <v>1.001247216417737</v>
       </c>
       <c r="H14">
-        <v>1.001262255273986</v>
+        <v>1.000793316156827</v>
       </c>
       <c r="I14">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J14">
         <v>0.9999999999999999</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L14">
-        <v>0.9926256613463961</v>
+        <v>0.9922815369641864</v>
       </c>
       <c r="M14">
-        <v>0.9805903750571657</v>
+        <v>0.98050810907928</v>
       </c>
       <c r="N14">
-        <v>0.9877438106887179</v>
+        <v>0.9873061656054293</v>
       </c>
       <c r="O14">
-        <v>0.9912418059023099</v>
+        <v>0.9933413644793317</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1038,43 +1038,43 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.000542284819078</v>
+        <v>1.000200322656813</v>
       </c>
       <c r="D15">
-        <v>1.000358721834498</v>
+        <v>1.000278707089121</v>
       </c>
       <c r="E15">
-        <v>1.000062225962589</v>
+        <v>0.9996368373146898</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G15">
-        <v>0.9991804306813162</v>
+        <v>1.001252858882805</v>
       </c>
       <c r="H15">
-        <v>1.001266115762595</v>
+        <v>1.000794775222924</v>
       </c>
       <c r="I15">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K15">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L15">
-        <v>0.9926435746617879</v>
+        <v>0.9922985565732898</v>
       </c>
       <c r="M15">
-        <v>0.9806081404546154</v>
+        <v>0.9805264053587432</v>
       </c>
       <c r="N15">
-        <v>0.9878241117195113</v>
+        <v>0.987390217829675</v>
       </c>
       <c r="O15">
-        <v>0.9912695355450851</v>
+        <v>0.9933604907592934</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1085,43 +1085,43 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1.000542092452296</v>
+        <v>1.000200350469153</v>
       </c>
       <c r="D16">
-        <v>1.000358612251927</v>
+        <v>1.000278637902501</v>
       </c>
       <c r="E16">
-        <v>1.000062063524042</v>
+        <v>0.999636705466553</v>
       </c>
       <c r="F16">
         <v>0.9999999999999999</v>
       </c>
       <c r="G16">
-        <v>0.9991802229992125</v>
+        <v>1.001252687827264</v>
       </c>
       <c r="H16">
-        <v>1.001266006080625</v>
+        <v>1.00079481661517</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J16">
         <v>0.9999999999999999</v>
       </c>
       <c r="K16">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.9926432523169973</v>
+        <v>0.992298456276804</v>
       </c>
       <c r="M16">
-        <v>0.9806078967258739</v>
+        <v>0.9805262028698886</v>
       </c>
       <c r="N16">
-        <v>0.987823222842206</v>
+        <v>0.9873893593128773</v>
       </c>
       <c r="O16">
-        <v>0.9912691973514873</v>
+        <v>0.9933601901217399</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,22 +1132,22 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1.000541652408659</v>
+        <v>1.000200194592554</v>
       </c>
       <c r="D17">
-        <v>1.000358286554168</v>
+        <v>1.000278329872066</v>
       </c>
       <c r="E17">
-        <v>1.000061650701614</v>
+        <v>0.9996361521780958</v>
       </c>
       <c r="F17">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9991792725455588</v>
+        <v>1.0012521840599</v>
       </c>
       <c r="H17">
-        <v>1.001265680087436</v>
+        <v>1.000794782024092</v>
       </c>
       <c r="I17">
         <v>0.9999999999999999</v>
@@ -1156,19 +1156,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L17">
-        <v>0.9926419896014912</v>
+        <v>0.9922974796416301</v>
       </c>
       <c r="M17">
-        <v>0.9806067227458315</v>
+        <v>0.9805250467810522</v>
       </c>
       <c r="N17">
-        <v>0.9878181849707141</v>
+        <v>0.9873841728049475</v>
       </c>
       <c r="O17">
-        <v>0.9912674171440682</v>
+        <v>0.9933588644169334</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,43 +1179,43 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1.000555976898579</v>
+        <v>1.00021115039196</v>
       </c>
       <c r="D18">
-        <v>1.000370509319813</v>
+        <v>1.000292107377148</v>
       </c>
       <c r="E18">
-        <v>1.000075032589469</v>
+        <v>0.9996611842903116</v>
       </c>
       <c r="F18">
         <v>0.9999999999999999</v>
       </c>
       <c r="G18">
-        <v>0.999224614024952</v>
+        <v>1.001269590869359</v>
       </c>
       <c r="H18">
-        <v>1.001277913939967</v>
+        <v>1.000799150473262</v>
       </c>
       <c r="I18">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L18">
-        <v>0.9926997039777591</v>
+        <v>0.9923518285088949</v>
       </c>
       <c r="M18">
-        <v>0.980663657766065</v>
+        <v>0.9805835780143317</v>
       </c>
       <c r="N18">
-        <v>0.9880750142808115</v>
+        <v>0.9876531592999347</v>
       </c>
       <c r="O18">
-        <v>0.9913565553642379</v>
+        <v>0.9934196198170406</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1.000564856698452</v>
+        <v>1.000217828425</v>
       </c>
       <c r="D19">
-        <v>1.000378000601609</v>
+        <v>1.000300516286821</v>
       </c>
       <c r="E19">
-        <v>1.000083169866812</v>
+        <v>0.9996764871498172</v>
       </c>
       <c r="F19">
         <v>0.9999999999999999</v>
       </c>
       <c r="G19">
-        <v>0.999252533221669</v>
+        <v>1.001280149408275</v>
       </c>
       <c r="H19">
-        <v>1.001285412016869</v>
+        <v>1.000801769708702</v>
       </c>
       <c r="I19">
         <v>0.9999999999999998</v>
@@ -1253,16 +1253,16 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9927351777565511</v>
+        <v>0.9923851014834915</v>
       </c>
       <c r="M19">
-        <v>0.9806985490841018</v>
+        <v>0.980619411443808</v>
       </c>
       <c r="N19">
-        <v>0.9882315646229769</v>
+        <v>0.9878171772568317</v>
       </c>
       <c r="O19">
-        <v>0.9914113147767259</v>
+        <v>0.9934567451018358</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,43 +1273,43 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.000565649895043</v>
+        <v>1.000217416967373</v>
       </c>
       <c r="D20">
-        <v>1.000378103869158</v>
+        <v>1.000300301517598</v>
       </c>
       <c r="E20">
-        <v>1.000083159769493</v>
+        <v>0.9996763058825237</v>
       </c>
       <c r="F20">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9992524866077929</v>
+        <v>1.001279787573606</v>
       </c>
       <c r="H20">
-        <v>1.001285515378089</v>
+        <v>1.000801460801398</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L20">
-        <v>0.992735783090937</v>
+        <v>0.9923844914344635</v>
       </c>
       <c r="M20">
-        <v>0.9806984544175619</v>
+        <v>0.9806189919186972</v>
       </c>
       <c r="N20">
-        <v>0.9882304672405625</v>
+        <v>0.9878159042646054</v>
       </c>
       <c r="O20">
-        <v>0.9914110723598614</v>
+        <v>0.9934561855765413</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,43 +1320,43 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1.00054239099987</v>
+        <v>1.000199195511489</v>
       </c>
       <c r="D21">
-        <v>1.000358201871338</v>
+        <v>1.000277848223626</v>
       </c>
       <c r="E21">
-        <v>1.000061505170543</v>
+        <v>0.9996358579543914</v>
       </c>
       <c r="F21">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9991791271971745</v>
+        <v>1.001251303009409</v>
       </c>
       <c r="H21">
-        <v>1.001265595327792</v>
+        <v>1.000794013687972</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9926426555460733</v>
+        <v>0.9922963923199655</v>
       </c>
       <c r="M21">
-        <v>0.9806065548145206</v>
+        <v>0.9805244733321424</v>
       </c>
       <c r="N21">
-        <v>0.9878175896396908</v>
+        <v>0.9873834252821496</v>
       </c>
       <c r="O21">
-        <v>0.9912671910052615</v>
+        <v>0.9933578963869445</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,43 +1367,43 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1.000518484892692</v>
+        <v>1.000181592513507</v>
       </c>
       <c r="D22">
-        <v>1.000338356618687</v>
+        <v>1.000255810898412</v>
       </c>
       <c r="E22">
-        <v>1.000039924408681</v>
+        <v>0.9995958056571714</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G22">
-        <v>0.9991068376800544</v>
+        <v>1.001223440057928</v>
       </c>
       <c r="H22">
-        <v>1.001245732074136</v>
+        <v>1.000786866784192</v>
       </c>
       <c r="I22">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L22">
-        <v>0.9925493520037492</v>
+        <v>0.9922093958011596</v>
       </c>
       <c r="M22">
-        <v>0.980515185785389</v>
+        <v>0.9804308514449629</v>
       </c>
       <c r="N22">
-        <v>0.9874034852814022</v>
+        <v>0.9869500029634651</v>
       </c>
       <c r="O22">
-        <v>0.9911248500884366</v>
+        <v>0.9932607102455899</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,43 +1414,43 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1.000499703369272</v>
+        <v>1.000167994105951</v>
       </c>
       <c r="D23">
-        <v>1.000322888296105</v>
+        <v>1.000238705513328</v>
       </c>
       <c r="E23">
-        <v>1.000023061129193</v>
+        <v>0.9995645904143614</v>
       </c>
       <c r="F23">
         <v>0.9999999999999999</v>
       </c>
       <c r="G23">
-        <v>0.9990508584695077</v>
+        <v>1.001201842247799</v>
       </c>
       <c r="H23">
-        <v>1.001230249720727</v>
+        <v>1.000781315410907</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J23">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>0.9999999999999999</v>
       </c>
       <c r="L23">
-        <v>0.9924764089133986</v>
+        <v>0.9921416423530736</v>
       </c>
       <c r="M23">
-        <v>0.9804438867961116</v>
+        <v>0.9803578689685306</v>
       </c>
       <c r="N23">
-        <v>0.9870776704419357</v>
+        <v>0.9866091436221133</v>
       </c>
       <c r="O23">
-        <v>0.9910141921551594</v>
+        <v>0.9931850111457172</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,22 +1461,22 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1.000492637765728</v>
+        <v>1.000162918473122</v>
       </c>
       <c r="D24">
-        <v>1.000317066453466</v>
+        <v>1.000232274243889</v>
       </c>
       <c r="E24">
-        <v>1.000016668385421</v>
+        <v>0.9995528330219084</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G24">
-        <v>0.9990298948186871</v>
+        <v>1.001193682083557</v>
       </c>
       <c r="H24">
-        <v>1.001224422597276</v>
+        <v>1.000779243855274</v>
       </c>
       <c r="I24">
         <v>0.9999999999999999</v>
@@ -1485,19 +1485,19 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9924489784594769</v>
+        <v>0.9921162049633703</v>
       </c>
       <c r="M24">
-        <v>0.9804170700242427</v>
+        <v>0.980330425318092</v>
       </c>
       <c r="N24">
-        <v>0.9869545402507429</v>
+        <v>0.9864803814835102</v>
       </c>
       <c r="O24">
-        <v>0.9909726673358247</v>
+        <v>0.9931565084363302</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,22 +1508,22 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1.000528998179837</v>
+        <v>1.000189437065116</v>
       </c>
       <c r="D25">
-        <v>1.000346929843557</v>
+        <v>1.000265332575379</v>
       </c>
       <c r="E25">
-        <v>1.000048960622729</v>
+        <v>0.9996132092410092</v>
       </c>
       <c r="F25">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G25">
-        <v>0.9991385124171362</v>
+        <v>1.001235035847618</v>
       </c>
       <c r="H25">
-        <v>1.001254313075509</v>
+        <v>1.00079011567421</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9925905363628479</v>
+        <v>0.9922479105697277</v>
       </c>
       <c r="M25">
-        <v>0.9805553681104977</v>
+        <v>0.9804720087516964</v>
       </c>
       <c r="N25">
-        <v>0.9875864685552728</v>
+        <v>0.9871417377711411</v>
       </c>
       <c r="O25">
-        <v>0.9911874850353689</v>
+        <v>0.9933029383185139</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/vm_pu.xlsx
+++ b/group2 project/results/res_bus/vm_pu.xlsx
@@ -427,43 +427,43 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.00026317674099</v>
+        <v>1.000258882649844</v>
       </c>
       <c r="D2">
-        <v>1.000357278396573</v>
+        <v>1.00034007079164</v>
       </c>
       <c r="E2">
-        <v>0.9997792282024788</v>
+        <v>0.9997639116436507</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.001351915194341</v>
+        <v>1.001311756754271</v>
       </c>
       <c r="H2">
-        <v>1.000819428293415</v>
+        <v>1.000812686934107</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9926074903141147</v>
+        <v>0.9926031601475443</v>
       </c>
       <c r="M2">
-        <v>0.9808586624398342</v>
+        <v>0.9808410946770828</v>
       </c>
       <c r="N2">
-        <v>0.9888931052373043</v>
+        <v>0.9888775381312193</v>
       </c>
       <c r="O2">
-        <v>0.993705363945057</v>
+        <v>0.9936648689579655</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,43 +474,43 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000285427943583</v>
+        <v>1.000279881838342</v>
       </c>
       <c r="D3">
-        <v>1.00038485936191</v>
+        <v>1.000366426438805</v>
       </c>
       <c r="E3">
-        <v>0.9998285161384071</v>
+        <v>0.9998127097453499</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.001387368312963</v>
+        <v>1.00134585775515</v>
       </c>
       <c r="H3">
-        <v>1.000827792110808</v>
+        <v>1.000819450372986</v>
       </c>
       <c r="I3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9927142304286155</v>
+        <v>0.9927086387257221</v>
       </c>
       <c r="M3">
-        <v>0.9809732811436535</v>
+        <v>0.9809544659326014</v>
       </c>
       <c r="N3">
-        <v>0.9893954666143844</v>
+        <v>0.9893794204472917</v>
       </c>
       <c r="O3">
-        <v>0.9938252190674645</v>
+        <v>0.9937833680683025</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -521,25 +521,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.000302806600426</v>
+        <v>1.000297218327408</v>
       </c>
       <c r="D4">
-        <v>1.000406512394133</v>
+        <v>1.000388291329261</v>
       </c>
       <c r="E4">
-        <v>0.9998665586998624</v>
+        <v>0.999850840322047</v>
       </c>
       <c r="F4">
         <v>0.9999999999999999</v>
       </c>
       <c r="G4">
-        <v>1.001415658400207</v>
+        <v>1.001374848522607</v>
       </c>
       <c r="H4">
-        <v>1.000834168756449</v>
+        <v>1.000826103128224</v>
       </c>
       <c r="I4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -548,16 +548,16 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9927970527658823</v>
+        <v>0.992791419313505</v>
       </c>
       <c r="M4">
-        <v>0.9810623284484695</v>
+        <v>0.9810437321381058</v>
       </c>
       <c r="N4">
-        <v>0.9897787611353542</v>
+        <v>0.9897628183833205</v>
       </c>
       <c r="O4">
-        <v>0.9939188902872917</v>
+        <v>0.9938777512877887</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -568,43 +568,43 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.000311977695867</v>
+        <v>1.000306619705539</v>
       </c>
       <c r="D5">
-        <v>1.000417983778908</v>
+        <v>1.000400648448891</v>
       </c>
       <c r="E5">
-        <v>0.9998865813460768</v>
+        <v>0.9998715645093104</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.001430789772452</v>
+        <v>1.001392079153443</v>
       </c>
       <c r="H5">
-        <v>1.000837557779092</v>
+        <v>1.000829927967052</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K5">
         <v>0.9999999999999998</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.9928402164794473</v>
+        <v>0.9928348155479843</v>
       </c>
       <c r="M5">
-        <v>0.9811087984025294</v>
+        <v>0.9810911073614377</v>
       </c>
       <c r="N5">
-        <v>0.989975998737885</v>
+        <v>0.989960774377878</v>
       </c>
       <c r="O5">
-        <v>0.9939679838942062</v>
+        <v>0.993928963797284</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -615,43 +615,43 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1.000315977591706</v>
+        <v>1.000310770188188</v>
       </c>
       <c r="D6">
-        <v>1.000423008847602</v>
+        <v>1.000406310172578</v>
       </c>
       <c r="E6">
-        <v>0.9998953473745364</v>
+        <v>0.9998808797791272</v>
       </c>
       <c r="F6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.001437448185807</v>
+        <v>1.001400260194822</v>
       </c>
       <c r="H6">
-        <v>1.000839057540383</v>
+        <v>1.000831648866206</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L6">
-        <v>0.9928588860918723</v>
+        <v>0.9928536371110057</v>
       </c>
       <c r="M6">
-        <v>0.9811289261221643</v>
+        <v>0.9811118853343473</v>
       </c>
       <c r="N6">
-        <v>0.990060773664254</v>
+        <v>0.9900461089479665</v>
       </c>
       <c r="O6">
-        <v>0.9939892995521405</v>
+        <v>0.9939518153745442</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -662,43 +662,43 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1.00031602193321</v>
+        <v>1.000310208635256</v>
       </c>
       <c r="D7">
-        <v>1.000423019922807</v>
+        <v>1.000405879989289</v>
       </c>
       <c r="E7">
-        <v>0.9998957568483596</v>
+        <v>0.9998813377816296</v>
       </c>
       <c r="F7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.00143730164193</v>
+        <v>1.00139984476001</v>
       </c>
       <c r="H7">
-        <v>1.000839104014273</v>
+        <v>1.000830643070382</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K7">
         <v>0.9999999999999999</v>
       </c>
       <c r="L7">
-        <v>0.9928589307874085</v>
+        <v>0.992853071074451</v>
       </c>
       <c r="M7">
-        <v>0.9811289374242674</v>
+        <v>0.9811114463375461</v>
       </c>
       <c r="N7">
-        <v>0.9900611887170347</v>
+        <v>0.9900465731908761</v>
       </c>
       <c r="O7">
-        <v>0.9939891518411516</v>
+        <v>0.9939513966308312</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -709,43 +709,43 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1.000315046591865</v>
+        <v>1.000309146028172</v>
       </c>
       <c r="D8">
-        <v>1.000421815083558</v>
+        <v>1.00040471293545</v>
       </c>
       <c r="E8">
-        <v>0.9998937634977185</v>
+        <v>0.999879477790007</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.001435714277809</v>
+        <v>1.001398493670902</v>
       </c>
       <c r="H8">
-        <v>1.000838731956097</v>
+        <v>1.000830072768005</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.992854334724629</v>
+        <v>0.9928483870053536</v>
       </c>
       <c r="M8">
-        <v>0.9811240057729029</v>
+        <v>0.9811065531109088</v>
       </c>
       <c r="N8">
-        <v>0.9900404638497998</v>
+        <v>0.9900259828161756</v>
       </c>
       <c r="O8">
-        <v>0.9939839471871156</v>
+        <v>0.9939464298579873</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -756,43 +756,43 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.000300837823357</v>
+        <v>1.000295508166954</v>
       </c>
       <c r="D9">
-        <v>1.000404230426406</v>
+        <v>1.000387730029491</v>
       </c>
       <c r="E9">
-        <v>0.9998627917250761</v>
+        <v>0.9998488174617957</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G9">
-        <v>1.001412824746579</v>
+        <v>1.001376326903496</v>
       </c>
       <c r="H9">
-        <v>1.000833550848637</v>
+        <v>1.00082552983866</v>
       </c>
       <c r="I9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L9">
-        <v>0.9927872619307571</v>
+        <v>0.9927818890992244</v>
       </c>
       <c r="M9">
-        <v>0.9810519980814509</v>
+        <v>0.9810351575906988</v>
       </c>
       <c r="N9">
-        <v>0.9897340116298288</v>
+        <v>0.9897198364126577</v>
       </c>
       <c r="O9">
-        <v>0.9939082456357428</v>
+        <v>0.993871452856344</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -803,22 +803,22 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1.000264830138818</v>
+        <v>1.000261059595496</v>
       </c>
       <c r="D10">
-        <v>1.000359517403411</v>
+        <v>1.000343739227936</v>
       </c>
       <c r="E10">
-        <v>0.999783116290003</v>
+        <v>0.9997689118906254</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G10">
-        <v>1.001355045587045</v>
+        <v>1.001318006434295</v>
       </c>
       <c r="H10">
-        <v>1.00082007477179</v>
+        <v>1.000814076734051</v>
       </c>
       <c r="I10">
         <v>0.9999999999999999</v>
@@ -827,19 +827,19 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9926154675567554</v>
+        <v>0.9926116653875412</v>
       </c>
       <c r="M10">
-        <v>0.9808674211719461</v>
+        <v>0.9808513129845903</v>
       </c>
       <c r="N10">
-        <v>0.9889311792571355</v>
+        <v>0.9889167437848325</v>
       </c>
       <c r="O10">
-        <v>0.9937148158161553</v>
+        <v>0.9936774667596234</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -850,25 +850,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.000229136227305</v>
+        <v>1.000227206871863</v>
       </c>
       <c r="D11">
-        <v>1.00031521349296</v>
+        <v>1.00030050660743</v>
       </c>
       <c r="E11">
-        <v>0.999703485905316</v>
+        <v>0.9996891868006786</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G11">
-        <v>1.001298620633009</v>
+        <v>1.001261562471185</v>
       </c>
       <c r="H11">
-        <v>1.000805970658506</v>
+        <v>1.000802466487766</v>
       </c>
       <c r="I11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0.9999999999999999</v>
@@ -877,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9924433300573453</v>
+        <v>0.9924413839484258</v>
       </c>
       <c r="M11">
-        <v>0.9806824867456615</v>
+        <v>0.9806674676329831</v>
       </c>
       <c r="N11">
-        <v>0.9881050346055927</v>
+        <v>0.9880904744674422</v>
       </c>
       <c r="O11">
-        <v>0.993522089611</v>
+        <v>0.9934847104500687</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -897,22 +897,22 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1.000211941179977</v>
+        <v>1.000210768384877</v>
       </c>
       <c r="D12">
-        <v>1.000293792718177</v>
+        <v>1.000279873839356</v>
       </c>
       <c r="E12">
-        <v>0.9996647329829094</v>
+        <v>0.9996507464306194</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.001271536470367</v>
+        <v>1.001235352371288</v>
       </c>
       <c r="H12">
-        <v>1.00079913950969</v>
+        <v>1.000796639119115</v>
       </c>
       <c r="I12">
         <v>0.9999999999999999</v>
@@ -921,19 +921,19 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L12">
-        <v>0.9923590510468787</v>
+        <v>0.9923578678943694</v>
       </c>
       <c r="M12">
-        <v>0.9805918960348409</v>
+        <v>0.9805776794704832</v>
       </c>
       <c r="N12">
-        <v>0.9876927679217495</v>
+        <v>0.9876785119520345</v>
       </c>
       <c r="O12">
-        <v>0.9934279922753853</v>
+        <v>0.9933914894090059</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -944,43 +944,43 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1.000198835146264</v>
+        <v>1.000197822060605</v>
       </c>
       <c r="D13">
-        <v>1.000277130767634</v>
+        <v>1.000263822285136</v>
       </c>
       <c r="E13">
-        <v>0.9996342601509813</v>
+        <v>0.999620573957509</v>
       </c>
       <c r="F13">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.001215361936254</v>
+      </c>
+      <c r="H13">
+        <v>1.000791978420075</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0.9999999999999998</v>
       </c>
-      <c r="G13">
-        <v>1.001250611470924</v>
-      </c>
-      <c r="H13">
-        <v>1.00079401148348</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
       <c r="K13">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L13">
-        <v>0.9922929377596799</v>
+        <v>0.9922919156075817</v>
       </c>
       <c r="M13">
-        <v>0.9805205661955255</v>
+        <v>0.9805069714141968</v>
       </c>
       <c r="N13">
-        <v>0.9873643536616487</v>
+        <v>0.9873503927618079</v>
       </c>
       <c r="O13">
-        <v>0.9933541149514495</v>
+        <v>0.9933185507356791</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -991,22 +991,22 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1.000196799575773</v>
+        <v>1.000195553111424</v>
       </c>
       <c r="D14">
-        <v>1.000274332916372</v>
+        <v>1.000261357574427</v>
       </c>
       <c r="E14">
-        <v>0.9996289701688206</v>
+        <v>0.9996155657578335</v>
       </c>
       <c r="F14">
         <v>0.9999999999999999</v>
       </c>
       <c r="G14">
-        <v>1.001247216417737</v>
+        <v>1.001212842759882</v>
       </c>
       <c r="H14">
-        <v>1.000793316156827</v>
+        <v>1.000791225246253</v>
       </c>
       <c r="I14">
         <v>0.9999999999999998</v>
@@ -1015,19 +1015,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="K14">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9922815369641864</v>
+        <v>0.9922802793187225</v>
       </c>
       <c r="M14">
-        <v>0.98050810907928</v>
+        <v>0.980494854316677</v>
       </c>
       <c r="N14">
-        <v>0.9873061656054293</v>
+        <v>0.9872924902115833</v>
       </c>
       <c r="O14">
-        <v>0.9933413644793317</v>
+        <v>0.9933066832421951</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1038,43 +1038,43 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.000200322656813</v>
+        <v>1.000198917142343</v>
       </c>
       <c r="D15">
-        <v>1.000278707089121</v>
+        <v>1.000266056128252</v>
       </c>
       <c r="E15">
-        <v>0.9996368373146898</v>
+        <v>0.999623783992823</v>
       </c>
       <c r="F15">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.001252858882805</v>
+        <v>1.001219495601634</v>
       </c>
       <c r="H15">
-        <v>1.000794775222924</v>
+        <v>1.000792585622082</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9922985565732898</v>
+        <v>0.9922971384933655</v>
       </c>
       <c r="M15">
-        <v>0.9805264053587432</v>
+        <v>0.9805134823682605</v>
       </c>
       <c r="N15">
-        <v>0.987390217829675</v>
+        <v>0.9873769033324404</v>
       </c>
       <c r="O15">
-        <v>0.9933604907592934</v>
+        <v>0.9933268299438642</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1085,43 +1085,43 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1.000200350469153</v>
+        <v>1.000198727163549</v>
       </c>
       <c r="D16">
-        <v>1.000278637902501</v>
+        <v>1.000265530145096</v>
       </c>
       <c r="E16">
-        <v>0.999636705466553</v>
+        <v>0.9996232851308848</v>
       </c>
       <c r="F16">
         <v>0.9999999999999999</v>
       </c>
       <c r="G16">
-        <v>1.001252687827264</v>
+        <v>1.001218323993135</v>
       </c>
       <c r="H16">
-        <v>1.00079481661517</v>
+        <v>1.000792372549765</v>
       </c>
       <c r="I16">
         <v>0.9999999999999999</v>
       </c>
       <c r="J16">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L16">
-        <v>0.992298456276804</v>
+        <v>0.9922968184582004</v>
       </c>
       <c r="M16">
-        <v>0.9805262028698886</v>
+        <v>0.9805128132563535</v>
       </c>
       <c r="N16">
-        <v>0.9873893593128773</v>
+        <v>0.9873756704317808</v>
       </c>
       <c r="O16">
-        <v>0.9933601901217399</v>
+        <v>0.9933255198201094</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,43 +1132,43 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1.000200194592554</v>
+        <v>1.00019832104539</v>
       </c>
       <c r="D17">
-        <v>1.000278329872066</v>
+        <v>1.000264627549647</v>
       </c>
       <c r="E17">
-        <v>0.9996361521780958</v>
+        <v>0.9996222500135273</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0012521840599</v>
+        <v>1.001216496042475</v>
       </c>
       <c r="H17">
-        <v>1.000794782024092</v>
+        <v>1.000792031572474</v>
       </c>
       <c r="I17">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J17">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0.9999999999999999</v>
       </c>
       <c r="L17">
-        <v>0.9922974796416301</v>
+        <v>0.99229558934077</v>
       </c>
       <c r="M17">
-        <v>0.9805250467810522</v>
+        <v>0.9805110497906416</v>
       </c>
       <c r="N17">
-        <v>0.9873841728049475</v>
+        <v>0.9873699922777728</v>
       </c>
       <c r="O17">
-        <v>0.9933588644169334</v>
+        <v>0.9933228580566228</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,43 +1179,43 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1.00021115039196</v>
+        <v>1.000208861523976</v>
       </c>
       <c r="D18">
-        <v>1.000292107377148</v>
+        <v>1.000278095165877</v>
       </c>
       <c r="E18">
-        <v>0.9996611842903116</v>
+        <v>0.999647235249321</v>
       </c>
       <c r="F18">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.001269590869359</v>
+        <v>1.001233770345543</v>
       </c>
       <c r="H18">
-        <v>1.000799150473262</v>
+        <v>1.000795854768483</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K18">
         <v>0.9999999999999999</v>
       </c>
       <c r="L18">
-        <v>0.9923518285088949</v>
+        <v>0.9923495193943578</v>
       </c>
       <c r="M18">
-        <v>0.9805835780143317</v>
+        <v>0.9805692659089886</v>
       </c>
       <c r="N18">
-        <v>0.9876531592999347</v>
+        <v>0.9876389402016191</v>
       </c>
       <c r="O18">
-        <v>0.9934196198170406</v>
+        <v>0.9933834832192522</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1.000217828425</v>
+        <v>1.000215293896531</v>
       </c>
       <c r="D19">
-        <v>1.000300516286821</v>
+        <v>1.000286016259577</v>
       </c>
       <c r="E19">
-        <v>0.9996764871498172</v>
+        <v>0.9996622575889056</v>
       </c>
       <c r="F19">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.001280149408275</v>
+        <v>1.001243520729444</v>
       </c>
       <c r="H19">
-        <v>1.000801769708702</v>
+        <v>1.00079807586635</v>
       </c>
       <c r="I19">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1253,16 +1253,16 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9923851014834915</v>
+        <v>0.9923825446846862</v>
       </c>
       <c r="M19">
-        <v>0.980619411443808</v>
+        <v>0.9806046019893012</v>
       </c>
       <c r="N19">
-        <v>0.9878171772568317</v>
+        <v>0.9878026779329329</v>
       </c>
       <c r="O19">
-        <v>0.9934567451018358</v>
+        <v>0.9934197953693386</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,43 +1273,43 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.000217416967373</v>
+        <v>1.00021547425793</v>
       </c>
       <c r="D20">
-        <v>1.000300301517598</v>
+        <v>1.00028593301458</v>
       </c>
       <c r="E20">
-        <v>0.9996763058825237</v>
+        <v>0.9996621120870555</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G20">
-        <v>1.001279787573606</v>
+        <v>1.001243133662552</v>
       </c>
       <c r="H20">
-        <v>1.000801460801398</v>
+        <v>1.000798222491046</v>
       </c>
       <c r="I20">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K20">
         <v>0.9999999999999999</v>
       </c>
       <c r="L20">
-        <v>0.9923844914344635</v>
+        <v>0.9923825316540248</v>
       </c>
       <c r="M20">
-        <v>0.9806189919186972</v>
+        <v>0.9806043167884589</v>
       </c>
       <c r="N20">
-        <v>0.9878159042646054</v>
+        <v>0.9878014413423351</v>
       </c>
       <c r="O20">
-        <v>0.9934561855765413</v>
+        <v>0.9934192103746448</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,25 +1320,25 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1.000199195511489</v>
+        <v>1.000198446345838</v>
       </c>
       <c r="D21">
-        <v>1.000277848223626</v>
+        <v>1.000263851135771</v>
       </c>
       <c r="E21">
-        <v>0.9996358579543914</v>
+        <v>0.9996215605205541</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G21">
-        <v>1.001251303009409</v>
+        <v>1.001214235108423</v>
       </c>
       <c r="H21">
-        <v>1.000794013687972</v>
+        <v>1.000792005633405</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1347,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9922963923199655</v>
+        <v>0.9922956364549601</v>
       </c>
       <c r="M21">
-        <v>0.9805244733321424</v>
+        <v>0.9805101752343228</v>
       </c>
       <c r="N21">
-        <v>0.9873834252821496</v>
+        <v>0.9873688415533702</v>
       </c>
       <c r="O21">
-        <v>0.9933578963869445</v>
+        <v>0.9933204978265113</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,25 +1367,25 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1.000181592513507</v>
+        <v>1.000181454138306</v>
       </c>
       <c r="D22">
-        <v>1.000255810898412</v>
+        <v>1.0002417326137</v>
       </c>
       <c r="E22">
-        <v>0.9995958056571714</v>
+        <v>0.9995810929160508</v>
       </c>
       <c r="F22">
         <v>0.9999999999999999</v>
       </c>
       <c r="G22">
-        <v>1.001223440057928</v>
+        <v>1.001185185975493</v>
       </c>
       <c r="H22">
-        <v>1.000786866784192</v>
+        <v>1.000785570520254</v>
       </c>
       <c r="I22">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1394,16 +1394,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="L22">
-        <v>0.9922093958011596</v>
+        <v>0.9922092561670123</v>
       </c>
       <c r="M22">
-        <v>0.9804308514449629</v>
+        <v>0.980416468074954</v>
       </c>
       <c r="N22">
-        <v>0.9869500029634651</v>
+        <v>0.986934979791356</v>
       </c>
       <c r="O22">
-        <v>0.9932607102455899</v>
+        <v>0.993222108982045</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,25 +1414,25 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1.000167994105951</v>
+        <v>1.000168248759977</v>
       </c>
       <c r="D23">
-        <v>1.000238705513328</v>
+        <v>1.000224352628513</v>
       </c>
       <c r="E23">
-        <v>0.9995645904143614</v>
+        <v>0.9995493794824556</v>
       </c>
       <c r="F23">
         <v>0.9999999999999999</v>
       </c>
       <c r="G23">
-        <v>1.001201842247799</v>
+        <v>1.001162177420958</v>
       </c>
       <c r="H23">
-        <v>1.000781315410907</v>
+        <v>1.000780474509232</v>
       </c>
       <c r="I23">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1441,16 +1441,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="L23">
-        <v>0.9921416423530736</v>
+        <v>0.9921418993551387</v>
       </c>
       <c r="M23">
-        <v>0.9803578689685306</v>
+        <v>0.9803432031792783</v>
       </c>
       <c r="N23">
-        <v>0.9866091436221133</v>
+        <v>0.9865935987895095</v>
       </c>
       <c r="O23">
-        <v>0.9931850111457172</v>
+        <v>0.9931449814882937</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,43 +1461,43 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1.000162918473122</v>
+        <v>1.000163252940216</v>
       </c>
       <c r="D24">
-        <v>1.000232274243889</v>
+        <v>1.00021756901084</v>
       </c>
       <c r="E24">
-        <v>0.9995528330219084</v>
+        <v>0.9995372283444766</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.001152904315103</v>
+      </c>
+      <c r="H24">
+        <v>1.000778474718388</v>
+      </c>
+      <c r="I24">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K24">
         <v>0.9999999999999998</v>
       </c>
-      <c r="G24">
-        <v>1.001193682083557</v>
-      </c>
-      <c r="H24">
-        <v>1.000779243855274</v>
-      </c>
-      <c r="I24">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
-        <v>0.9921162049633703</v>
+        <v>0.9921165425298903</v>
       </c>
       <c r="M24">
-        <v>0.980330425318092</v>
+        <v>0.9803153987759211</v>
       </c>
       <c r="N24">
-        <v>0.9864803814835102</v>
+        <v>0.9864644292198428</v>
       </c>
       <c r="O24">
-        <v>0.9931565084363302</v>
+        <v>0.9931153537184572</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,43 +1508,43 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1.000189437065116</v>
+        <v>1.000188406702458</v>
       </c>
       <c r="D25">
-        <v>1.000265332575379</v>
+        <v>1.000249256466581</v>
       </c>
       <c r="E25">
-        <v>0.9996132092410092</v>
+        <v>0.9995970353496504</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.001192682700857</v>
+      </c>
+      <c r="H25">
+        <v>1.00078760275185</v>
+      </c>
+      <c r="I25">
         <v>0.9999999999999998</v>
       </c>
-      <c r="G25">
-        <v>1.001235035847618</v>
-      </c>
-      <c r="H25">
-        <v>1.00079011567421</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9922479105697277</v>
+        <v>0.9922468709038195</v>
       </c>
       <c r="M25">
-        <v>0.9804720087516964</v>
+        <v>0.98045558544112</v>
       </c>
       <c r="N25">
-        <v>0.9871417377711411</v>
+        <v>0.9871252303415401</v>
       </c>
       <c r="O25">
-        <v>0.9933029383185139</v>
+        <v>0.9932602037005507</v>
       </c>
     </row>
   </sheetData>
